--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/6_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/6_245-70R19.xlsx
@@ -1016,100 +1016,100 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.1840739479045568</v>
+        <v>0.1487929195343554</v>
       </c>
       <c r="AP2">
-        <v>0.004888147156075056</v>
+        <v>0.01368569383461579</v>
       </c>
       <c r="AQ2">
-        <v>0.3764958631127727</v>
+        <v>0.2938802591506496</v>
       </c>
       <c r="AR2">
-        <v>0.006553107315569393</v>
+        <v>0.01494108431260143</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>8.409340519951151E-05</v>
       </c>
       <c r="AT2">
-        <v>0.01229781478676158</v>
+        <v>0.01927263003579635</v>
       </c>
       <c r="AU2">
-        <v>0.08985332160433271</v>
+        <v>0.0777499721024671</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>0.00534989923757124</v>
       </c>
       <c r="AW2">
-        <v>0.01612961897873387</v>
+        <v>0.02216183460245002</v>
       </c>
       <c r="AX2">
-        <v>0.08359248216166802</v>
+        <v>0.07302925961232244</v>
       </c>
       <c r="AY2">
-        <v>0.00628612020601364</v>
+        <v>0.01473977434541098</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>0.00191311169088081</v>
       </c>
       <c r="BA2">
-        <v>0.001973551723537322</v>
+        <v>0.01148807046667913</v>
       </c>
       <c r="BB2">
-        <v>0.03013784694108871</v>
+        <v>0.03272412697750204</v>
       </c>
       <c r="BC2">
-        <v>0.04285535568245388</v>
+        <v>0.04231320890631995</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>0.001452497016447729</v>
       </c>
       <c r="BE2">
-        <v>0.04181587242442308</v>
+        <v>0.04152943196324062</v>
       </c>
       <c r="BF2">
-        <v>0.001182307194188273</v>
+        <v>0.01089146709317576</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>0.008238992358714736</v>
       </c>
       <c r="BH2">
-        <v>0.06857420207279603</v>
+        <v>0.06170538155327192</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>0.005262999660676186</v>
       </c>
       <c r="BJ2">
-        <v>0.00373400433679849</v>
+        <v>0.01281546285804074</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>0.0003083657174669065</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>1.967814373518008E-05</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>0.003455554421728026</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>0.009616697505770638</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>0.008840285750657888</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>0.003071200573513013</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>0.008380307413382984</v>
       </c>
       <c r="BR2">
-        <v>0.01496852143654213</v>
+        <v>0.02128635972086322</v>
       </c>
       <c r="BS2">
-        <v>0.0009177150235739518</v>
+        <v>0.01069196292507624</v>
       </c>
       <c r="BT2">
-        <v>0.01367019993811446</v>
+        <v>0.02030741710941649</v>
       </c>
     </row>
     <row r="3" spans="1:72">
@@ -1234,100 +1234,100 @@
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.2467766378573157</v>
+        <v>0.2036035206034639</v>
       </c>
       <c r="AP3">
-        <v>0.04840190042864716</v>
+        <v>0.0479727125235514</v>
       </c>
       <c r="AQ3">
-        <v>0.2807118521029256</v>
+        <v>0.2302266929078925</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>0.002584335544237801</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>0.00146172726146335</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>0.003083108968155603</v>
       </c>
       <c r="AU3">
-        <v>0.1466123820096575</v>
+        <v>0.1250217199147573</v>
       </c>
       <c r="AV3">
-        <v>0.001694929848378669</v>
+        <v>0.0113297222487152</v>
       </c>
       <c r="AW3">
-        <v>0.05868801869135296</v>
+        <v>0.05604247441954925</v>
       </c>
       <c r="AX3">
-        <v>0.06400157103138875</v>
+        <v>0.06021111229740421</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>0.005468909315057223</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>2.180192226547493E-05</v>
       </c>
       <c r="BA3">
-        <v>0.0008299049620511932</v>
+        <v>0.01065108481829749</v>
       </c>
       <c r="BB3">
-        <v>0.008403389333284368</v>
+        <v>0.01659270575226057</v>
       </c>
       <c r="BC3">
-        <v>0.03958261097696213</v>
+        <v>0.0410537209127878</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>0.005358601525231347</v>
       </c>
       <c r="BE3">
-        <v>0.02146749552119218</v>
+        <v>0.02684188076930107</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>0.002660554322769461</v>
       </c>
       <c r="BG3">
-        <v>0.003837642825463933</v>
+        <v>0.01301074351397083</v>
       </c>
       <c r="BH3">
-        <v>0.06065091269928763</v>
+        <v>0.0575824224219502</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>0.00669071200413479</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>0.003289111480426782</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>0.002105477557165012</v>
       </c>
       <c r="BL3">
-        <v>0</v>
+        <v>0.002677323479949327</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>9.79912448020538E-05</v>
       </c>
       <c r="BN3">
-        <v>0</v>
+        <v>0.004981842556245379</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>0.0005529065938360935</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>0.00730002840127931</v>
       </c>
       <c r="BQ3">
-        <v>0</v>
+        <v>0.007136196305228437</v>
       </c>
       <c r="BR3">
-        <v>0.008804220313349856</v>
+        <v>0.01690716942913619</v>
       </c>
       <c r="BS3">
-        <v>0.002646728595011475</v>
+        <v>0.01207643632122242</v>
       </c>
       <c r="BT3">
-        <v>0.006889802803731029</v>
+        <v>0.01540525266349235</v>
       </c>
     </row>
     <row r="4" spans="1:72">
@@ -1452,100 +1452,100 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.3073510839212662</v>
+        <v>0.2513312552831848</v>
       </c>
       <c r="AP4">
-        <v>0.1152119330904082</v>
+        <v>0.1004641040518766</v>
       </c>
       <c r="AQ4">
-        <v>0.2780912085327764</v>
+        <v>0.2283564787935639</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>0.001161145228732833</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>0.006095876752503666</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>0.001665838260146424</v>
       </c>
       <c r="AU4">
-        <v>0.1015649486928388</v>
+        <v>0.08974852812653147</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>0.009034740624230486</v>
       </c>
       <c r="AW4">
-        <v>0.05613865146776713</v>
+        <v>0.05407992012187608</v>
       </c>
       <c r="AX4">
-        <v>0.02919532576587364</v>
+        <v>0.03292409229727882</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>0.004767005088393655</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>4.474153173950905E-05</v>
       </c>
       <c r="BA4">
-        <v>0.006612019163512862</v>
+        <v>0.01519173989669677</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>0.002509871641430931</v>
       </c>
       <c r="BC4">
-        <v>0.03658072184190128</v>
+        <v>0.03872308569288316</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>0.009486369331235023</v>
       </c>
       <c r="BE4">
-        <v>0.0009052588505850816</v>
+        <v>0.01071080684662195</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>0.00486645562019138</v>
       </c>
       <c r="BG4">
-        <v>0.004731757276329008</v>
+        <v>0.01371536325371915</v>
       </c>
       <c r="BH4">
-        <v>0.05456028425090723</v>
+        <v>0.05284059037270818</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>0.00267786068094626</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>0.006868578174550986</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>0.0004465394153603655</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>0.001323852408051612</v>
       </c>
       <c r="BM4">
-        <v>0</v>
+        <v>0.001103646458302325</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>0.007652677085130034</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>0.0002017500136860191</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>0.006221620054697835</v>
       </c>
       <c r="BQ4">
-        <v>0.0007344030203426493</v>
+        <v>0.01057665130222367</v>
       </c>
       <c r="BR4">
-        <v>0.008020660491339458</v>
+        <v>0.01629780132830456</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.008674085962592918</v>
       </c>
       <c r="BT4">
-        <v>0.0003017436341522518</v>
+        <v>0.01023692830060859</v>
       </c>
     </row>
     <row r="5" spans="1:72">
@@ -1670,100 +1670,100 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.3000699056459648</v>
+        <v>0.242351750607791</v>
       </c>
       <c r="AP5">
-        <v>0.02532621130935597</v>
+        <v>0.02961072877776215</v>
       </c>
       <c r="AQ5">
-        <v>0.3307099774348472</v>
+        <v>0.2660771365426765</v>
       </c>
       <c r="AR5">
-        <v>0.00691933352973615</v>
+        <v>0.01535781572368085</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>0.0006120633084159208</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>0.00360729051234016</v>
       </c>
       <c r="AU5">
-        <v>0.1123128744092938</v>
+        <v>0.09696671173543692</v>
       </c>
       <c r="AV5">
-        <v>0.02346186399730983</v>
+        <v>0.02816711729409028</v>
       </c>
       <c r="AW5">
-        <v>0.02457533292337483</v>
+        <v>0.02902930456895756</v>
       </c>
       <c r="AX5">
-        <v>0.03682011534197862</v>
+        <v>0.03851075064949473</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>0.0006162196032197973</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>0.001741347619176236</v>
       </c>
       <c r="BA5">
-        <v>0.007476131166931955</v>
+        <v>0.01578895827847396</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.005344921415630382</v>
       </c>
       <c r="BC5">
-        <v>0.01577484800445179</v>
+        <v>0.02221486553780133</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.008761663510516887</v>
       </c>
       <c r="BE5">
-        <v>0.009300588044474714</v>
+        <v>0.01720168158537444</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>0.0002202511886332633</v>
       </c>
       <c r="BG5">
-        <v>0.005115597777758535</v>
+        <v>0.01396113731068354</v>
       </c>
       <c r="BH5">
-        <v>0.05752542468838939</v>
+        <v>0.05454339765272511</v>
       </c>
       <c r="BI5">
-        <v>0.000901625148736894</v>
+        <v>0.01069815125662151</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.004426330418438655</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>9.564295530819184E-05</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>0.001637949967964904</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>0.001304937191571526</v>
       </c>
       <c r="BN5">
-        <v>0.002593827725318765</v>
+        <v>0.01200846669863624</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>0.001291642481788895</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>0.006043182103495648</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>0.009971154755801138</v>
       </c>
       <c r="BR5">
-        <v>0.02307032673162802</v>
+        <v>0.02786394004306434</v>
       </c>
       <c r="BS5">
-        <v>0.0118934095924323</v>
+        <v>0.01920936917532003</v>
       </c>
       <c r="BT5">
-        <v>0.006152606528016316</v>
+        <v>0.01476411952910793</v>
       </c>
     </row>
     <row r="6" spans="1:72">
@@ -1888,100 +1888,100 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.2810248025142754</v>
+        <v>0.2260213821001209</v>
       </c>
       <c r="AP6">
-        <v>0.03879180903681526</v>
+        <v>0.03981893458272644</v>
       </c>
       <c r="AQ6">
-        <v>0.2929957566934486</v>
+        <v>0.2352233530425641</v>
       </c>
       <c r="AR6">
-        <v>0.0004421881255380727</v>
+        <v>0.01033990626155549</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>0.001122719674111288</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>0.006573933636606688</v>
       </c>
       <c r="AU6">
-        <v>0.1378904704786114</v>
+        <v>0.1159952350992664</v>
       </c>
       <c r="AV6">
-        <v>0.002916515365691962</v>
+        <v>0.0122419006243444</v>
       </c>
       <c r="AW6">
-        <v>0.03889824051969022</v>
+        <v>0.03990074756088321</v>
       </c>
       <c r="AX6">
-        <v>0.03616584615909497</v>
+        <v>0.03780037919148144</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>0.004536375902477519</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>0.0006895692329676827</v>
       </c>
       <c r="BA6">
-        <v>0.01192854509670463</v>
+        <v>0.01916937144045447</v>
       </c>
       <c r="BB6">
-        <v>0.00775419466201685</v>
+        <v>0.0159605836672625</v>
       </c>
       <c r="BC6">
-        <v>0.0165132124994658</v>
+        <v>0.0226935663867832</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>0.005481786238170415</v>
       </c>
       <c r="BE6">
-        <v>0.02008716627596442</v>
+        <v>0.02544083434126192</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>0.001442301164656085</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>0.008524317536832327</v>
       </c>
       <c r="BH6">
-        <v>0.06617908199747724</v>
+        <v>0.06087129901456316</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>0.006974800228718502</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>0.007814416421152874</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>0.0004089553566950566</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>0.002219927256006258</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>0.00115447520938845</v>
       </c>
       <c r="BN6">
-        <v>0.002810463972687881</v>
+        <v>0.01216037981804752</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>0.001274813949560782</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>0.003090089979961736</v>
       </c>
       <c r="BQ6">
-        <v>0.002502821822015993</v>
+        <v>0.01192389790618133</v>
       </c>
       <c r="BR6">
-        <v>0.01880058575947271</v>
+        <v>0.02445185081073703</v>
       </c>
       <c r="BS6">
-        <v>0.007923773511433734</v>
+        <v>0.01609093749047753</v>
       </c>
       <c r="BT6">
-        <v>0.01637452550959477</v>
+        <v>0.02258695887398289</v>
       </c>
     </row>
     <row r="7" spans="1:72">
@@ -2106,100 +2106,100 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>0.1553424731666035</v>
+        <v>0.1336643828136106</v>
       </c>
       <c r="AP7">
-        <v>0.07686576307156756</v>
+        <v>0.0711909734406507</v>
       </c>
       <c r="AQ7">
-        <v>0.08245014110861879</v>
+        <v>0.07563656162572595</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>0.0001902554533567886</v>
       </c>
       <c r="AS7">
-        <v>0.01038295620345634</v>
+        <v>0.01826562011346438</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1.843152373944994E-06</v>
       </c>
       <c r="AU7">
-        <v>0.08177402200075183</v>
+        <v>0.07509831956945855</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>0.002047227792397455</v>
       </c>
       <c r="AW7">
-        <v>0.09659420504113091</v>
+        <v>0.08689630856444276</v>
       </c>
       <c r="AX7">
-        <v>0.01260606461390749</v>
+        <v>0.0200353829085458</v>
       </c>
       <c r="AY7">
-        <v>0.02002924915813354</v>
+        <v>0.02594480044555591</v>
       </c>
       <c r="AZ7">
-        <v>0.04006773326525984</v>
+        <v>0.04189695261047242</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>0.003822143008021408</v>
       </c>
       <c r="BB7">
-        <v>0.1149612363622562</v>
+        <v>0.1015178576240436</v>
       </c>
       <c r="BC7">
-        <v>0.03123474053737825</v>
+        <v>0.0348652209029498</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>0.001128130335405413</v>
       </c>
       <c r="BE7">
-        <v>0.08549027244867853</v>
+        <v>0.07805673659897742</v>
       </c>
       <c r="BF7">
-        <v>0.01165201767686136</v>
+        <v>0.01927588923472943</v>
       </c>
       <c r="BG7">
-        <v>0</v>
+        <v>0.0002638880073350393</v>
       </c>
       <c r="BH7">
-        <v>0.1458929965353242</v>
+        <v>0.1261418831926248</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>0.0007888836473324111</v>
       </c>
       <c r="BJ7">
-        <v>0.007370260607452575</v>
+        <v>0.01586728607197196</v>
       </c>
       <c r="BK7">
-        <v>0.003335338403464044</v>
+        <v>0.01265518217092213</v>
       </c>
       <c r="BL7">
-        <v>0</v>
+        <v>1.253378283276915E-05</v>
       </c>
       <c r="BM7">
-        <v>0.001770165424665496</v>
+        <v>0.01140918584761089</v>
       </c>
       <c r="BN7">
-        <v>0</v>
+        <v>0.001667062296257921</v>
       </c>
       <c r="BO7">
-        <v>0</v>
+        <v>0.0002397384635016583</v>
       </c>
       <c r="BP7">
-        <v>0</v>
+        <v>0.0008331366441508676</v>
       </c>
       <c r="BQ7">
-        <v>0</v>
+        <v>0.00205170730295993</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>0.000877655176899593</v>
       </c>
       <c r="BS7">
-        <v>0.008852721462179271</v>
+        <v>0.01704743727536176</v>
       </c>
       <c r="BT7">
-        <v>0.01332764291231029</v>
+        <v>0.02060981392605622</v>
       </c>
     </row>
     <row r="8" spans="1:72">
@@ -2213,52 +2213,52 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1696976274938467</v>
+        <v>0.1623418781024533</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.158840696577795</v>
+        <v>0.1521749929481571</v>
       </c>
       <c r="G8">
-        <v>0.08142351270852362</v>
+        <v>0.07967829720109214</v>
       </c>
       <c r="H8">
-        <v>0.08999424967923426</v>
+        <v>0.08770429452415363</v>
       </c>
       <c r="I8">
-        <v>0.01220121949304651</v>
+        <v>0.01485564053315206</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.007515901505345026</v>
+        <v>0.01046811239461604</v>
       </c>
       <c r="L8">
-        <v>0.1267313826094104</v>
+        <v>0.1221064855565194</v>
       </c>
       <c r="M8">
-        <v>0.01710095874127868</v>
+        <v>0.01944396172704703</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.07632834857764359</v>
+        <v>0.07490697195627934</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.06644706233594842</v>
+        <v>0.06565372136706263</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.001503302946873952</v>
+        <v>0.004837663099550237</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2267,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.0002073183484817243</v>
       </c>
       <c r="W8">
-        <v>0.01313647544367044</v>
+        <v>0.01573145340452322</v>
       </c>
       <c r="X8">
-        <v>0.04863710912644818</v>
+        <v>0.04897573471646458</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2288,25 +2288,25 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.0285587871742746</v>
+        <v>0.03017355250151436</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.001612439015453948</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.01178833817675669</v>
+        <v>0.01446900116356126</v>
       </c>
       <c r="AG8">
-        <v>0.01347174800378605</v>
+        <v>0.01604541668203129</v>
       </c>
       <c r="AH8">
-        <v>0.02742928382416342</v>
+        <v>0.02911583822380859</v>
       </c>
       <c r="AI8">
-        <v>0.04919399558195449</v>
+        <v>0.04949722653407804</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -2431,34 +2431,34 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1365877672855798</v>
+        <v>0.183517393749151</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2407479909959567</v>
+        <v>0.3695719647509091</v>
       </c>
       <c r="G9">
-        <v>0.03384794915191904</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0005950318681600883</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01829582275509484</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04568861219415361</v>
+        <v>0.02115019922408108</v>
       </c>
       <c r="K9">
-        <v>0.04376993355701956</v>
+        <v>0.01772298950806882</v>
       </c>
       <c r="L9">
-        <v>0.004861378546085921</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.128083265891996</v>
+        <v>0.1683263611072975</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2467,40 +2467,40 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.00888561626724761</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.07058331034773964</v>
+        <v>0.06561796455898088</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.02639869407760254</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.04063997900864294</v>
+        <v>0.01213215713454735</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.00721207259882944</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.06902320887677006</v>
+        <v>0.06283125769948381</v>
       </c>
       <c r="X9">
-        <v>0.08662357707893077</v>
+        <v>0.09426964020940691</v>
       </c>
       <c r="Y9">
-        <v>0.001151195053382077</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.0004357973713533363</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.03656879707353614</v>
+        <v>0.004860072058073568</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -2760,100 +2760,100 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0.1925826122018106</v>
+        <v>0.1560797676315782</v>
       </c>
       <c r="AP10">
-        <v>0.01426529213003331</v>
+        <v>0.02082065787625792</v>
       </c>
       <c r="AQ10">
-        <v>0.1314608809117268</v>
+        <v>0.1097170757872142</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.007206831119851713</v>
       </c>
       <c r="AS10">
-        <v>0.02761197644760869</v>
+        <v>0.03094452379266961</v>
       </c>
       <c r="AT10">
-        <v>0.006043347002523813</v>
+        <v>0.01458406247455279</v>
       </c>
       <c r="AU10">
-        <v>0.08957763228388665</v>
+        <v>0.07794735806836302</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>0.0007837361434832334</v>
       </c>
       <c r="AW10">
-        <v>0.04406487520743311</v>
+        <v>0.0434245478209159</v>
       </c>
       <c r="AX10">
-        <v>0.06213640888849372</v>
+        <v>0.05713235565825685</v>
       </c>
       <c r="AY10">
-        <v>0.0004248753830778632</v>
+        <v>0.01032228089817035</v>
       </c>
       <c r="AZ10">
-        <v>0.01114351736925066</v>
+        <v>0.01845269678963929</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>0.0003168640900304993</v>
       </c>
       <c r="BB10">
-        <v>0.08762450390664678</v>
+        <v>0.07646585080122273</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>0.0002733989190856776</v>
       </c>
       <c r="BD10">
-        <v>0.008719312819930616</v>
+        <v>0.01661386392094296</v>
       </c>
       <c r="BE10">
-        <v>0.06901012660669155</v>
+        <v>0.06234627957152882</v>
       </c>
       <c r="BF10">
-        <v>0</v>
+        <v>0.000617025139182976</v>
       </c>
       <c r="BG10">
-        <v>0</v>
+        <v>0.009882735602597904</v>
       </c>
       <c r="BH10">
-        <v>0.1287315854216451</v>
+        <v>0.1076468221623893</v>
       </c>
       <c r="BI10">
-        <v>0.03532180906734078</v>
+        <v>0.03679266628431164</v>
       </c>
       <c r="BJ10">
-        <v>0.02702856889682855</v>
+        <v>0.03050199142446618</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>0.00521834915232753</v>
       </c>
       <c r="BL10">
-        <v>0</v>
+        <v>0.005224242297967419</v>
       </c>
       <c r="BM10">
-        <v>0.01549473261274082</v>
+        <v>0.02175322586865054</v>
       </c>
       <c r="BN10">
-        <v>0.003538691000288544</v>
+        <v>0.01268420473235873</v>
       </c>
       <c r="BO10">
-        <v>0</v>
+        <v>0.0003158342100592794</v>
       </c>
       <c r="BP10">
-        <v>0</v>
+        <v>0.000329570972239146</v>
       </c>
       <c r="BQ10">
-        <v>0.005014952911764676</v>
+        <v>0.013803994284106</v>
       </c>
       <c r="BR10">
-        <v>0</v>
+        <v>0.001301003187788558</v>
       </c>
       <c r="BS10">
-        <v>0.01047149872131023</v>
+        <v>0.01794295020965026</v>
       </c>
       <c r="BT10">
-        <v>0.02973280020896708</v>
+        <v>0.03255323310814046</v>
       </c>
     </row>
     <row r="11" spans="1:72">
@@ -2867,46 +2867,46 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1974717816925822</v>
+        <v>0.2358130367610965</v>
       </c>
       <c r="E11">
-        <v>0.02196850484777601</v>
+        <v>0.00908433668680499</v>
       </c>
       <c r="F11">
-        <v>0.2340110100087973</v>
+        <v>0.2830172365161757</v>
       </c>
       <c r="G11">
-        <v>0.020863371637321</v>
+        <v>0.007656640174693928</v>
       </c>
       <c r="H11">
-        <v>0.01164394181866314</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.006101717662333418</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1187519203976605</v>
+        <v>0.1341166346066867</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.03324664102510001</v>
+        <v>0.02365430484191061</v>
       </c>
       <c r="M11">
-        <v>0.05465468549550039</v>
+        <v>0.05131087160902932</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.01493661671022061</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.06634978351260205</v>
+        <v>0.06641950330143727</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.04191949066542688</v>
+        <v>0.03485856245033082</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.1186916972463084</v>
+        <v>0.1340388336842998</v>
       </c>
       <c r="X11">
-        <v>0.006060593962933357</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.01966232471000409</v>
+        <v>0.006105034908659006</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2957,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.007950411037958266</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.02571550756881243</v>
+        <v>0.01392500445887549</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -3427,97 +3427,97 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.1840739479045568</v>
+        <v>0.1487929195343554</v>
       </c>
       <c r="AP2">
-        <v>0.1889620950606318</v>
+        <v>0.1624786133689712</v>
       </c>
       <c r="AQ2">
-        <v>0.5654579581734045</v>
+        <v>0.4563588725196208</v>
       </c>
       <c r="AR2">
-        <v>0.5720110654889738</v>
+        <v>0.4712999568322222</v>
       </c>
       <c r="AS2">
-        <v>0.5720110654889738</v>
+        <v>0.4713840502374217</v>
       </c>
       <c r="AT2">
-        <v>0.5843088802757355</v>
+        <v>0.490656680273218</v>
       </c>
       <c r="AU2">
-        <v>0.6741622018800681</v>
+        <v>0.5684066523756851</v>
       </c>
       <c r="AV2">
-        <v>0.6741622018800681</v>
+        <v>0.5737565516132563</v>
       </c>
       <c r="AW2">
-        <v>0.690291820858802</v>
+        <v>0.5959183862157064</v>
       </c>
       <c r="AX2">
-        <v>0.7738843030204701</v>
+        <v>0.6689476458280288</v>
       </c>
       <c r="AY2">
-        <v>0.7801704232264837</v>
+        <v>0.6836874201734398</v>
       </c>
       <c r="AZ2">
-        <v>0.7801704232264837</v>
+        <v>0.6856005318643206</v>
       </c>
       <c r="BA2">
-        <v>0.782143974950021</v>
+        <v>0.6970886023309997</v>
       </c>
       <c r="BB2">
-        <v>0.8122818218911096</v>
+        <v>0.7298127293085017</v>
       </c>
       <c r="BC2">
-        <v>0.8551371775735636</v>
+        <v>0.7721259382148217</v>
       </c>
       <c r="BD2">
-        <v>0.8551371775735636</v>
+        <v>0.7735784352312693</v>
       </c>
       <c r="BE2">
-        <v>0.8969530499979866</v>
+        <v>0.81510786719451</v>
       </c>
       <c r="BF2">
-        <v>0.898135357192175</v>
+        <v>0.8259993342876858</v>
       </c>
       <c r="BG2">
-        <v>0.898135357192175</v>
+        <v>0.8342383266464005</v>
       </c>
       <c r="BH2">
-        <v>0.966709559264971</v>
+        <v>0.8959437081996724</v>
       </c>
       <c r="BI2">
-        <v>0.966709559264971</v>
+        <v>0.9012067078603486</v>
       </c>
       <c r="BJ2">
-        <v>0.9704435636017695</v>
+        <v>0.9140221707183893</v>
       </c>
       <c r="BK2">
-        <v>0.9704435636017695</v>
+        <v>0.9143305364358563</v>
       </c>
       <c r="BL2">
-        <v>0.9704435636017695</v>
+        <v>0.9143502145795914</v>
       </c>
       <c r="BM2">
-        <v>0.9704435636017695</v>
+        <v>0.9178057690013195</v>
       </c>
       <c r="BN2">
-        <v>0.9704435636017695</v>
+        <v>0.9274224665070901</v>
       </c>
       <c r="BO2">
-        <v>0.9704435636017695</v>
+        <v>0.936262752257748</v>
       </c>
       <c r="BP2">
-        <v>0.9704435636017695</v>
+        <v>0.9393339528312611</v>
       </c>
       <c r="BQ2">
-        <v>0.9704435636017695</v>
+        <v>0.9477142602446441</v>
       </c>
       <c r="BR2">
-        <v>0.9854120850383117</v>
+        <v>0.9690006199655073</v>
       </c>
       <c r="BS2">
-        <v>0.9863298000618856</v>
+        <v>0.9796925828905836</v>
       </c>
       <c r="BT2">
         <v>1</v>
@@ -3645,97 +3645,97 @@
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.2467766378573157</v>
+        <v>0.2036035206034639</v>
       </c>
       <c r="AP3">
-        <v>0.2951785382859629</v>
+        <v>0.2515762331270153</v>
       </c>
       <c r="AQ3">
-        <v>0.5758903903888886</v>
+        <v>0.4818029260349078</v>
       </c>
       <c r="AR3">
-        <v>0.5758903903888886</v>
+        <v>0.4843872615791456</v>
       </c>
       <c r="AS3">
-        <v>0.5758903903888886</v>
+        <v>0.485848988840609</v>
       </c>
       <c r="AT3">
-        <v>0.5758903903888886</v>
+        <v>0.4889320978087646</v>
       </c>
       <c r="AU3">
-        <v>0.7225027723985461</v>
+        <v>0.6139538177235219</v>
       </c>
       <c r="AV3">
-        <v>0.7241977022469248</v>
+        <v>0.6252835399722371</v>
       </c>
       <c r="AW3">
-        <v>0.7828857209382778</v>
+        <v>0.6813260143917863</v>
       </c>
       <c r="AX3">
-        <v>0.8468872919696665</v>
+        <v>0.7415371266891905</v>
       </c>
       <c r="AY3">
-        <v>0.8468872919696665</v>
+        <v>0.7470060360042476</v>
       </c>
       <c r="AZ3">
-        <v>0.8468872919696665</v>
+        <v>0.7470278379265132</v>
       </c>
       <c r="BA3">
-        <v>0.8477171969317177</v>
+        <v>0.7576789227448106</v>
       </c>
       <c r="BB3">
-        <v>0.856120586265002</v>
+        <v>0.7742716284970712</v>
       </c>
       <c r="BC3">
-        <v>0.8957031972419641</v>
+        <v>0.815325349409859</v>
       </c>
       <c r="BD3">
-        <v>0.8957031972419641</v>
+        <v>0.8206839509350904</v>
       </c>
       <c r="BE3">
-        <v>0.9171706927631563</v>
+        <v>0.8475258317043914</v>
       </c>
       <c r="BF3">
-        <v>0.9171706927631563</v>
+        <v>0.8501863860271609</v>
       </c>
       <c r="BG3">
-        <v>0.9210083355886203</v>
+        <v>0.8631971295411317</v>
       </c>
       <c r="BH3">
-        <v>0.9816592482879078</v>
+        <v>0.9207795519630819</v>
       </c>
       <c r="BI3">
-        <v>0.9816592482879078</v>
+        <v>0.9274702639672167</v>
       </c>
       <c r="BJ3">
-        <v>0.9816592482879078</v>
+        <v>0.9307593754476434</v>
       </c>
       <c r="BK3">
-        <v>0.9816592482879078</v>
+        <v>0.9328648530048085</v>
       </c>
       <c r="BL3">
-        <v>0.9816592482879078</v>
+        <v>0.9355421764847578</v>
       </c>
       <c r="BM3">
-        <v>0.9816592482879078</v>
+        <v>0.9356401677295598</v>
       </c>
       <c r="BN3">
-        <v>0.9816592482879078</v>
+        <v>0.9406220102858052</v>
       </c>
       <c r="BO3">
-        <v>0.9816592482879078</v>
+        <v>0.9411749168796413</v>
       </c>
       <c r="BP3">
-        <v>0.9816592482879078</v>
+        <v>0.9484749452809206</v>
       </c>
       <c r="BQ3">
-        <v>0.9816592482879078</v>
+        <v>0.955611141586149</v>
       </c>
       <c r="BR3">
-        <v>0.9904634686012577</v>
+        <v>0.9725183110152852</v>
       </c>
       <c r="BS3">
-        <v>0.9931101971962691</v>
+        <v>0.9845947473365076</v>
       </c>
       <c r="BT3">
         <v>1</v>
@@ -3863,100 +3863,100 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.3073510839212662</v>
+        <v>0.2513312552831848</v>
       </c>
       <c r="AP4">
-        <v>0.4225630170116744</v>
+        <v>0.3517953593350614</v>
       </c>
       <c r="AQ4">
-        <v>0.7006542255444508</v>
+        <v>0.5801518381286253</v>
       </c>
       <c r="AR4">
-        <v>0.7006542255444508</v>
+        <v>0.581312983357358</v>
       </c>
       <c r="AS4">
-        <v>0.7006542255444508</v>
+        <v>0.5874088601098617</v>
       </c>
       <c r="AT4">
-        <v>0.7006542255444508</v>
+        <v>0.5890746983700081</v>
       </c>
       <c r="AU4">
-        <v>0.8022191742372895</v>
+        <v>0.6788232264965396</v>
       </c>
       <c r="AV4">
-        <v>0.8022191742372895</v>
+        <v>0.6878579671207701</v>
       </c>
       <c r="AW4">
-        <v>0.8583578257050566</v>
+        <v>0.7419378872426462</v>
       </c>
       <c r="AX4">
-        <v>0.8875531514709303</v>
+        <v>0.774861979539925</v>
       </c>
       <c r="AY4">
-        <v>0.8875531514709303</v>
+        <v>0.7796289846283186</v>
       </c>
       <c r="AZ4">
-        <v>0.8875531514709303</v>
+        <v>0.7796737261600581</v>
       </c>
       <c r="BA4">
-        <v>0.8941651706344431</v>
+        <v>0.7948654660567549</v>
       </c>
       <c r="BB4">
-        <v>0.8941651706344431</v>
+        <v>0.7973753376981858</v>
       </c>
       <c r="BC4">
-        <v>0.9307458924763444</v>
+        <v>0.836098423391069</v>
       </c>
       <c r="BD4">
-        <v>0.9307458924763444</v>
+        <v>0.845584792722304</v>
       </c>
       <c r="BE4">
-        <v>0.9316511513269295</v>
+        <v>0.856295599568926</v>
       </c>
       <c r="BF4">
-        <v>0.9316511513269295</v>
+        <v>0.8611620551891174</v>
       </c>
       <c r="BG4">
-        <v>0.9363829086032586</v>
+        <v>0.8748774184428365</v>
       </c>
       <c r="BH4">
-        <v>0.9909431928541658</v>
+        <v>0.9277180088155447</v>
       </c>
       <c r="BI4">
-        <v>0.9909431928541658</v>
+        <v>0.9303958694964909</v>
       </c>
       <c r="BJ4">
-        <v>0.9909431928541658</v>
+        <v>0.9372644476710419</v>
       </c>
       <c r="BK4">
-        <v>0.9909431928541658</v>
+        <v>0.9377109870864022</v>
       </c>
       <c r="BL4">
-        <v>0.9909431928541658</v>
+        <v>0.9390348394944539</v>
       </c>
       <c r="BM4">
-        <v>0.9909431928541658</v>
+        <v>0.9401384859527562</v>
       </c>
       <c r="BN4">
-        <v>0.9909431928541658</v>
+        <v>0.9477911630378862</v>
       </c>
       <c r="BO4">
-        <v>0.9909431928541658</v>
+        <v>0.9479929130515723</v>
       </c>
       <c r="BP4">
-        <v>0.9909431928541658</v>
+        <v>0.9542145331062701</v>
       </c>
       <c r="BQ4">
-        <v>0.9916775958745084</v>
+        <v>0.9647911844084938</v>
       </c>
       <c r="BR4">
-        <v>0.9996982563658479</v>
+        <v>0.9810889857367984</v>
       </c>
       <c r="BS4">
-        <v>0.9996982563658479</v>
+        <v>0.9897630716993913</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:72">
@@ -4081,97 +4081,97 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.3000699056459648</v>
+        <v>0.242351750607791</v>
       </c>
       <c r="AP5">
-        <v>0.3253961169553208</v>
+        <v>0.2719624793855531</v>
       </c>
       <c r="AQ5">
-        <v>0.656106094390168</v>
+        <v>0.5380396159282297</v>
       </c>
       <c r="AR5">
-        <v>0.6630254279199042</v>
+        <v>0.5533974316519106</v>
       </c>
       <c r="AS5">
-        <v>0.6630254279199042</v>
+        <v>0.5540094949603265</v>
       </c>
       <c r="AT5">
-        <v>0.6630254279199042</v>
+        <v>0.5576167854726667</v>
       </c>
       <c r="AU5">
-        <v>0.775338302329198</v>
+        <v>0.6545834972081036</v>
       </c>
       <c r="AV5">
-        <v>0.7988001663265079</v>
+        <v>0.6827506145021939</v>
       </c>
       <c r="AW5">
-        <v>0.8233754992498827</v>
+        <v>0.7117799190711515</v>
       </c>
       <c r="AX5">
-        <v>0.8601956145918613</v>
+        <v>0.7502906697206462</v>
       </c>
       <c r="AY5">
-        <v>0.8601956145918613</v>
+        <v>0.750906889323866</v>
       </c>
       <c r="AZ5">
-        <v>0.8601956145918613</v>
+        <v>0.7526482369430422</v>
       </c>
       <c r="BA5">
-        <v>0.8676717457587932</v>
+        <v>0.7684371952215161</v>
       </c>
       <c r="BB5">
-        <v>0.8676717457587932</v>
+        <v>0.7737821166371465</v>
       </c>
       <c r="BC5">
-        <v>0.8834465937632451</v>
+        <v>0.7959969821749477</v>
       </c>
       <c r="BD5">
-        <v>0.8834465937632451</v>
+        <v>0.8047586456854646</v>
       </c>
       <c r="BE5">
-        <v>0.8927471818077198</v>
+        <v>0.8219603272708391</v>
       </c>
       <c r="BF5">
-        <v>0.8927471818077198</v>
+        <v>0.8221805784594723</v>
       </c>
       <c r="BG5">
-        <v>0.8978627795854783</v>
+        <v>0.8361417157701558</v>
       </c>
       <c r="BH5">
-        <v>0.9553882042738677</v>
+        <v>0.8906851134228809</v>
       </c>
       <c r="BI5">
-        <v>0.9562898294226047</v>
+        <v>0.9013832646795025</v>
       </c>
       <c r="BJ5">
-        <v>0.9562898294226047</v>
+        <v>0.9058095950979411</v>
       </c>
       <c r="BK5">
-        <v>0.9562898294226047</v>
+        <v>0.9059052380532493</v>
       </c>
       <c r="BL5">
-        <v>0.9562898294226047</v>
+        <v>0.9075431880212143</v>
       </c>
       <c r="BM5">
-        <v>0.9562898294226047</v>
+        <v>0.9088481252127858</v>
       </c>
       <c r="BN5">
-        <v>0.9588836571479235</v>
+        <v>0.920856591911422</v>
       </c>
       <c r="BO5">
-        <v>0.9588836571479235</v>
+        <v>0.9221482343932109</v>
       </c>
       <c r="BP5">
-        <v>0.9588836571479235</v>
+        <v>0.9281914164967066</v>
       </c>
       <c r="BQ5">
-        <v>0.9588836571479235</v>
+        <v>0.9381625712525077</v>
       </c>
       <c r="BR5">
-        <v>0.9819539838795515</v>
+        <v>0.966026511295572</v>
       </c>
       <c r="BS5">
-        <v>0.9938473934719838</v>
+        <v>0.9852358804708921</v>
       </c>
       <c r="BT5">
         <v>1</v>
@@ -4299,97 +4299,97 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.2810248025142754</v>
+        <v>0.2260213821001209</v>
       </c>
       <c r="AP6">
-        <v>0.3198166115510907</v>
+        <v>0.2658403166828474</v>
       </c>
       <c r="AQ6">
-        <v>0.6128123682445392</v>
+        <v>0.5010636697254115</v>
       </c>
       <c r="AR6">
-        <v>0.6132545563700773</v>
+        <v>0.511403575986967</v>
       </c>
       <c r="AS6">
-        <v>0.6132545563700773</v>
+        <v>0.5125262956610782</v>
       </c>
       <c r="AT6">
-        <v>0.6132545563700773</v>
+        <v>0.519100229297685</v>
       </c>
       <c r="AU6">
-        <v>0.7511450268486887</v>
+        <v>0.6350954643969514</v>
       </c>
       <c r="AV6">
-        <v>0.7540615422143806</v>
+        <v>0.6473373650212958</v>
       </c>
       <c r="AW6">
-        <v>0.7929597827340709</v>
+        <v>0.687238112582179</v>
       </c>
       <c r="AX6">
-        <v>0.8291256288931659</v>
+        <v>0.7250384917736605</v>
       </c>
       <c r="AY6">
-        <v>0.8291256288931659</v>
+        <v>0.7295748676761381</v>
       </c>
       <c r="AZ6">
-        <v>0.8291256288931659</v>
+        <v>0.7302644369091058</v>
       </c>
       <c r="BA6">
-        <v>0.8410541739898705</v>
+        <v>0.7494338083495603</v>
       </c>
       <c r="BB6">
-        <v>0.8488083686518874</v>
+        <v>0.7653943920168228</v>
       </c>
       <c r="BC6">
-        <v>0.8653215811513532</v>
+        <v>0.788087958403606</v>
       </c>
       <c r="BD6">
-        <v>0.8653215811513532</v>
+        <v>0.7935697446417764</v>
       </c>
       <c r="BE6">
-        <v>0.8854087474273176</v>
+        <v>0.8190105789830383</v>
       </c>
       <c r="BF6">
-        <v>0.8854087474273176</v>
+        <v>0.8204528801476944</v>
       </c>
       <c r="BG6">
-        <v>0.8854087474273176</v>
+        <v>0.8289771976845267</v>
       </c>
       <c r="BH6">
-        <v>0.9515878294247948</v>
+        <v>0.8898484966990898</v>
       </c>
       <c r="BI6">
-        <v>0.9515878294247948</v>
+        <v>0.8968232969278084</v>
       </c>
       <c r="BJ6">
-        <v>0.9515878294247948</v>
+        <v>0.9046377133489613</v>
       </c>
       <c r="BK6">
-        <v>0.9515878294247948</v>
+        <v>0.9050466687056563</v>
       </c>
       <c r="BL6">
-        <v>0.9515878294247948</v>
+        <v>0.9072665959616626</v>
       </c>
       <c r="BM6">
-        <v>0.9515878294247948</v>
+        <v>0.9084210711710511</v>
       </c>
       <c r="BN6">
-        <v>0.9543982933974827</v>
+        <v>0.9205814509890986</v>
       </c>
       <c r="BO6">
-        <v>0.9543982933974827</v>
+        <v>0.9218562649386594</v>
       </c>
       <c r="BP6">
-        <v>0.9543982933974827</v>
+        <v>0.9249463549186211</v>
       </c>
       <c r="BQ6">
-        <v>0.9569011152194987</v>
+        <v>0.9368702528248024</v>
       </c>
       <c r="BR6">
-        <v>0.9757017009789715</v>
+        <v>0.9613221036355395</v>
       </c>
       <c r="BS6">
-        <v>0.9836254744904052</v>
+        <v>0.977413041126017</v>
       </c>
       <c r="BT6">
         <v>0.9999999999999999</v>
@@ -4517,97 +4517,97 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>0.1553424731666035</v>
+        <v>0.1336643828136106</v>
       </c>
       <c r="AP7">
-        <v>0.232208236238171</v>
+        <v>0.2048553562542613</v>
       </c>
       <c r="AQ7">
-        <v>0.3146583773467898</v>
+        <v>0.2804919178799873</v>
       </c>
       <c r="AR7">
-        <v>0.3146583773467898</v>
+        <v>0.2806821733333441</v>
       </c>
       <c r="AS7">
-        <v>0.3250413335502462</v>
+        <v>0.2989477934468084</v>
       </c>
       <c r="AT7">
-        <v>0.3250413335502462</v>
+        <v>0.2989496365991824</v>
       </c>
       <c r="AU7">
-        <v>0.406815355550998</v>
+        <v>0.3740479561686409</v>
       </c>
       <c r="AV7">
-        <v>0.406815355550998</v>
+        <v>0.3760951839610384</v>
       </c>
       <c r="AW7">
-        <v>0.5034095605921289</v>
+        <v>0.4629914925254812</v>
       </c>
       <c r="AX7">
-        <v>0.5160156252060364</v>
+        <v>0.4830268754340269</v>
       </c>
       <c r="AY7">
-        <v>0.5360448743641699</v>
+        <v>0.5089716758795828</v>
       </c>
       <c r="AZ7">
-        <v>0.5761126076294297</v>
+        <v>0.5508686284900552</v>
       </c>
       <c r="BA7">
-        <v>0.5761126076294297</v>
+        <v>0.5546907714980767</v>
       </c>
       <c r="BB7">
-        <v>0.6910738439916859</v>
+        <v>0.6562086291221203</v>
       </c>
       <c r="BC7">
-        <v>0.7223085845290642</v>
+        <v>0.6910738500250702</v>
       </c>
       <c r="BD7">
-        <v>0.7223085845290642</v>
+        <v>0.6922019803604755</v>
       </c>
       <c r="BE7">
-        <v>0.8077988569777428</v>
+        <v>0.7702587169594529</v>
       </c>
       <c r="BF7">
-        <v>0.8194508746546042</v>
+        <v>0.7895346061941824</v>
       </c>
       <c r="BG7">
-        <v>0.8194508746546042</v>
+        <v>0.7897984942015174</v>
       </c>
       <c r="BH7">
-        <v>0.9653438711899285</v>
+        <v>0.9159403773941421</v>
       </c>
       <c r="BI7">
-        <v>0.9653438711899285</v>
+        <v>0.9167292610414746</v>
       </c>
       <c r="BJ7">
-        <v>0.9727141317973811</v>
+        <v>0.9325965471134465</v>
       </c>
       <c r="BK7">
-        <v>0.9760494702008451</v>
+        <v>0.9452517292843686</v>
       </c>
       <c r="BL7">
-        <v>0.9760494702008451</v>
+        <v>0.9452642630672013</v>
       </c>
       <c r="BM7">
-        <v>0.9778196356255106</v>
+        <v>0.9566734489148122</v>
       </c>
       <c r="BN7">
-        <v>0.9778196356255106</v>
+        <v>0.9583405112110701</v>
       </c>
       <c r="BO7">
-        <v>0.9778196356255106</v>
+        <v>0.9585802496745718</v>
       </c>
       <c r="BP7">
-        <v>0.9778196356255106</v>
+        <v>0.9594133863187226</v>
       </c>
       <c r="BQ7">
-        <v>0.9778196356255106</v>
+        <v>0.9614650936216825</v>
       </c>
       <c r="BR7">
-        <v>0.9778196356255106</v>
+        <v>0.9623427487985822</v>
       </c>
       <c r="BS7">
-        <v>0.9866723570876899</v>
+        <v>0.9793901860739439</v>
       </c>
       <c r="BT7">
         <v>1</v>
@@ -4624,97 +4624,97 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1696976274938467</v>
+        <v>0.1623418781024533</v>
       </c>
       <c r="E8">
-        <v>0.1696976274938467</v>
+        <v>0.1623418781024533</v>
       </c>
       <c r="F8">
-        <v>0.3285383240716417</v>
+        <v>0.3145168710506104</v>
       </c>
       <c r="G8">
-        <v>0.4099618367801653</v>
+        <v>0.3941951682517026</v>
       </c>
       <c r="H8">
-        <v>0.4999560864593996</v>
+        <v>0.4818994627758562</v>
       </c>
       <c r="I8">
-        <v>0.5121573059524461</v>
+        <v>0.4967551033090083</v>
       </c>
       <c r="J8">
-        <v>0.5121573059524461</v>
+        <v>0.4967551033090083</v>
       </c>
       <c r="K8">
-        <v>0.5196732074577911</v>
+        <v>0.5072232157036244</v>
       </c>
       <c r="L8">
-        <v>0.6464045900672015</v>
+        <v>0.6293297012601438</v>
       </c>
       <c r="M8">
-        <v>0.6635055488084802</v>
+        <v>0.6487736629871907</v>
       </c>
       <c r="N8">
-        <v>0.6635055488084802</v>
+        <v>0.6487736629871907</v>
       </c>
       <c r="O8">
-        <v>0.7398338973861238</v>
+        <v>0.7236806349434701</v>
       </c>
       <c r="P8">
-        <v>0.7398338973861238</v>
+        <v>0.7236806349434701</v>
       </c>
       <c r="Q8">
-        <v>0.8062809597220723</v>
+        <v>0.7893343563105327</v>
       </c>
       <c r="R8">
-        <v>0.8062809597220723</v>
+        <v>0.7893343563105327</v>
       </c>
       <c r="S8">
-        <v>0.8077842626689462</v>
+        <v>0.794172019410083</v>
       </c>
       <c r="T8">
-        <v>0.8077842626689462</v>
+        <v>0.794172019410083</v>
       </c>
       <c r="U8">
-        <v>0.8077842626689462</v>
+        <v>0.794172019410083</v>
       </c>
       <c r="V8">
-        <v>0.8077842626689462</v>
+        <v>0.7943793377585647</v>
       </c>
       <c r="W8">
-        <v>0.8209207381126167</v>
+        <v>0.8101107911630879</v>
       </c>
       <c r="X8">
-        <v>0.8695578472390648</v>
+        <v>0.8590865258795525</v>
       </c>
       <c r="Y8">
-        <v>0.8695578472390648</v>
+        <v>0.8590865258795525</v>
       </c>
       <c r="Z8">
-        <v>0.8695578472390648</v>
+        <v>0.8590865258795525</v>
       </c>
       <c r="AA8">
-        <v>0.8695578472390648</v>
+        <v>0.8590865258795525</v>
       </c>
       <c r="AB8">
-        <v>0.8695578472390648</v>
+        <v>0.8590865258795525</v>
       </c>
       <c r="AC8">
-        <v>0.8981166344133394</v>
+        <v>0.8892600783810668</v>
       </c>
       <c r="AD8">
-        <v>0.8981166344133394</v>
+        <v>0.8908725173965207</v>
       </c>
       <c r="AE8">
-        <v>0.8981166344133394</v>
+        <v>0.8908725173965207</v>
       </c>
       <c r="AF8">
-        <v>0.9099049725900962</v>
+        <v>0.905341518560082</v>
       </c>
       <c r="AG8">
-        <v>0.9233767205938822</v>
+        <v>0.9213869352421133</v>
       </c>
       <c r="AH8">
-        <v>0.9508060044180456</v>
+        <v>0.9505027734659219</v>
       </c>
       <c r="AI8">
         <v>1</v>
@@ -4842,97 +4842,97 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1365877672855798</v>
+        <v>0.183517393749151</v>
       </c>
       <c r="E9">
-        <v>0.1365877672855798</v>
+        <v>0.183517393749151</v>
       </c>
       <c r="F9">
-        <v>0.3773357582815365</v>
+        <v>0.5530893585000601</v>
       </c>
       <c r="G9">
-        <v>0.4111837074334556</v>
+        <v>0.5530893585000601</v>
       </c>
       <c r="H9">
-        <v>0.4117787393016156</v>
+        <v>0.5530893585000601</v>
       </c>
       <c r="I9">
-        <v>0.4300745620567105</v>
+        <v>0.5530893585000601</v>
       </c>
       <c r="J9">
-        <v>0.4757631742508641</v>
+        <v>0.5742395577241413</v>
       </c>
       <c r="K9">
-        <v>0.5195331078078836</v>
+        <v>0.5919625472322101</v>
       </c>
       <c r="L9">
-        <v>0.5243944863539696</v>
+        <v>0.5919625472322101</v>
       </c>
       <c r="M9">
-        <v>0.6524777522459655</v>
+        <v>0.7602889083395077</v>
       </c>
       <c r="N9">
-        <v>0.6524777522459655</v>
+        <v>0.7602889083395077</v>
       </c>
       <c r="O9">
-        <v>0.6524777522459655</v>
+        <v>0.7602889083395077</v>
       </c>
       <c r="P9">
-        <v>0.6613633685132131</v>
+        <v>0.7602889083395077</v>
       </c>
       <c r="Q9">
-        <v>0.7319466788609528</v>
+        <v>0.8259068728984885</v>
       </c>
       <c r="R9">
-        <v>0.7319466788609528</v>
+        <v>0.8259068728984885</v>
       </c>
       <c r="S9">
-        <v>0.7583453729385553</v>
+        <v>0.8259068728984885</v>
       </c>
       <c r="T9">
-        <v>0.7989853519471982</v>
+        <v>0.8380390300330359</v>
       </c>
       <c r="U9">
-        <v>0.7989853519471982</v>
+        <v>0.8380390300330359</v>
       </c>
       <c r="V9">
-        <v>0.8061974245460276</v>
+        <v>0.8380390300330359</v>
       </c>
       <c r="W9">
-        <v>0.8752206334227977</v>
+        <v>0.9008702877325198</v>
       </c>
       <c r="X9">
-        <v>0.9618442105017284</v>
+        <v>0.9951399279419266</v>
       </c>
       <c r="Y9">
-        <v>0.9629954055551105</v>
+        <v>0.9951399279419266</v>
       </c>
       <c r="Z9">
-        <v>0.9629954055551105</v>
+        <v>0.9951399279419266</v>
       </c>
       <c r="AA9">
-        <v>0.9634312029264639</v>
+        <v>0.9951399279419266</v>
       </c>
       <c r="AB9">
-        <v>0.9634312029264639</v>
+        <v>0.9951399279419266</v>
       </c>
       <c r="AC9">
-        <v>0.9634312029264639</v>
+        <v>0.9951399279419266</v>
       </c>
       <c r="AD9">
-        <v>0.9634312029264639</v>
+        <v>0.9951399279419266</v>
       </c>
       <c r="AE9">
-        <v>0.9634312029264639</v>
+        <v>0.9951399279419266</v>
       </c>
       <c r="AF9">
-        <v>0.9634312029264639</v>
+        <v>0.9951399279419266</v>
       </c>
       <c r="AG9">
-        <v>0.9634312029264639</v>
+        <v>0.9951399279419266</v>
       </c>
       <c r="AH9">
-        <v>0.9634312029264639</v>
+        <v>0.9951399279419266</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -5171,97 +5171,97 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0.1925826122018106</v>
+        <v>0.1560797676315782</v>
       </c>
       <c r="AP10">
-        <v>0.2068479043318439</v>
+        <v>0.1769004255078362</v>
       </c>
       <c r="AQ10">
-        <v>0.3383087852435708</v>
+        <v>0.2866175012950504</v>
       </c>
       <c r="AR10">
-        <v>0.3383087852435708</v>
+        <v>0.2938243324149021</v>
       </c>
       <c r="AS10">
-        <v>0.3659207616911795</v>
+        <v>0.3247688562075717</v>
       </c>
       <c r="AT10">
-        <v>0.3719641086937033</v>
+        <v>0.3393529186821245</v>
       </c>
       <c r="AU10">
-        <v>0.4615417409775899</v>
+        <v>0.4173002767504875</v>
       </c>
       <c r="AV10">
-        <v>0.4615417409775899</v>
+        <v>0.4180840128939707</v>
       </c>
       <c r="AW10">
-        <v>0.505606616185023</v>
+        <v>0.4615085607148867</v>
       </c>
       <c r="AX10">
-        <v>0.5677430250735167</v>
+        <v>0.5186409163731435</v>
       </c>
       <c r="AY10">
-        <v>0.5681679004565946</v>
+        <v>0.5289631972713138</v>
       </c>
       <c r="AZ10">
-        <v>0.5793114178258453</v>
+        <v>0.547415894060953</v>
       </c>
       <c r="BA10">
-        <v>0.5793114178258453</v>
+        <v>0.5477327581509835</v>
       </c>
       <c r="BB10">
-        <v>0.6669359217324921</v>
+        <v>0.6241986089522062</v>
       </c>
       <c r="BC10">
-        <v>0.6669359217324921</v>
+        <v>0.624472007871292</v>
       </c>
       <c r="BD10">
-        <v>0.6756552345524227</v>
+        <v>0.641085871792235</v>
       </c>
       <c r="BE10">
-        <v>0.7446653611591143</v>
+        <v>0.7034321513637638</v>
       </c>
       <c r="BF10">
-        <v>0.7446653611591143</v>
+        <v>0.7040491765029467</v>
       </c>
       <c r="BG10">
-        <v>0.7446653611591143</v>
+        <v>0.7139319121055446</v>
       </c>
       <c r="BH10">
-        <v>0.8733969465807594</v>
+        <v>0.8215787342679339</v>
       </c>
       <c r="BI10">
-        <v>0.9087187556481002</v>
+        <v>0.8583714005522456</v>
       </c>
       <c r="BJ10">
-        <v>0.9357473245449288</v>
+        <v>0.8888733919767118</v>
       </c>
       <c r="BK10">
-        <v>0.9357473245449288</v>
+        <v>0.8940917411290393</v>
       </c>
       <c r="BL10">
-        <v>0.9357473245449288</v>
+        <v>0.8993159834270068</v>
       </c>
       <c r="BM10">
-        <v>0.9512420571576696</v>
+        <v>0.9210692092956574</v>
       </c>
       <c r="BN10">
-        <v>0.9547807481579582</v>
+        <v>0.9337534140280161</v>
       </c>
       <c r="BO10">
-        <v>0.9547807481579582</v>
+        <v>0.9340692482380755</v>
       </c>
       <c r="BP10">
-        <v>0.9547807481579582</v>
+        <v>0.9343988192103146</v>
       </c>
       <c r="BQ10">
-        <v>0.9597957010697229</v>
+        <v>0.9482028134944206</v>
       </c>
       <c r="BR10">
-        <v>0.9597957010697229</v>
+        <v>0.9495038166822092</v>
       </c>
       <c r="BS10">
-        <v>0.9702671997910332</v>
+        <v>0.9674467668918595</v>
       </c>
       <c r="BT10">
         <v>1</v>
@@ -5278,211 +5278,211 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1974717816925822</v>
+        <v>0.2358130367610965</v>
       </c>
       <c r="E11">
-        <v>0.2194402865403582</v>
+        <v>0.2448973734479015</v>
       </c>
       <c r="F11">
-        <v>0.4534512965491555</v>
+        <v>0.5279146099640772</v>
       </c>
       <c r="G11">
-        <v>0.4743146681864765</v>
+        <v>0.5355712501387712</v>
       </c>
       <c r="H11">
-        <v>0.4859586100051396</v>
+        <v>0.5355712501387712</v>
       </c>
       <c r="I11">
-        <v>0.492060327667473</v>
+        <v>0.5355712501387712</v>
       </c>
       <c r="J11">
-        <v>0.6108122480651336</v>
+        <v>0.6696878847454579</v>
       </c>
       <c r="K11">
-        <v>0.6108122480651336</v>
+        <v>0.6696878847454579</v>
       </c>
       <c r="L11">
-        <v>0.6440588890902336</v>
+        <v>0.6933421895873685</v>
       </c>
       <c r="M11">
-        <v>0.6987135745857339</v>
+        <v>0.7446530611963978</v>
       </c>
       <c r="N11">
-        <v>0.6987135745857339</v>
+        <v>0.7446530611963978</v>
       </c>
       <c r="O11">
-        <v>0.7136501912959545</v>
+        <v>0.7446530611963978</v>
       </c>
       <c r="P11">
-        <v>0.7136501912959545</v>
+        <v>0.7446530611963978</v>
       </c>
       <c r="Q11">
-        <v>0.7799999748085565</v>
+        <v>0.8110725644978352</v>
       </c>
       <c r="R11">
-        <v>0.7799999748085565</v>
+        <v>0.8110725644978352</v>
       </c>
       <c r="S11">
-        <v>0.7799999748085565</v>
+        <v>0.8110725644978352</v>
       </c>
       <c r="T11">
-        <v>0.8219194654739834</v>
+        <v>0.845931126948166</v>
       </c>
       <c r="U11">
-        <v>0.8219194654739834</v>
+        <v>0.845931126948166</v>
       </c>
       <c r="V11">
-        <v>0.8219194654739834</v>
+        <v>0.845931126948166</v>
       </c>
       <c r="W11">
-        <v>0.9406111627202918</v>
+        <v>0.9799699606324658</v>
       </c>
       <c r="X11">
-        <v>0.9466717566832251</v>
+        <v>0.9799699606324658</v>
       </c>
       <c r="Y11">
-        <v>0.9663340813932292</v>
+        <v>0.9860749955411248</v>
       </c>
       <c r="Z11">
-        <v>0.9663340813932292</v>
+        <v>0.9860749955411248</v>
       </c>
       <c r="AA11">
-        <v>0.9663340813932292</v>
+        <v>0.9860749955411248</v>
       </c>
       <c r="AB11">
-        <v>0.9663340813932292</v>
+        <v>0.9860749955411248</v>
       </c>
       <c r="AC11">
-        <v>0.9663340813932292</v>
+        <v>0.9860749955411248</v>
       </c>
       <c r="AD11">
-        <v>0.9663340813932292</v>
+        <v>0.9860749955411248</v>
       </c>
       <c r="AE11">
-        <v>0.9663340813932292</v>
+        <v>0.9860749955411248</v>
       </c>
       <c r="AF11">
-        <v>0.9663340813932292</v>
+        <v>0.9860749955411248</v>
       </c>
       <c r="AG11">
-        <v>0.9663340813932292</v>
+        <v>0.9860749955411248</v>
       </c>
       <c r="AH11">
-        <v>0.9742844924311874</v>
+        <v>0.9860749955411248</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5550,16 +5550,16 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5654579581734045</v>
+        <v>0.5684066523756851</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -5591,16 +5591,16 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5758903903888886</v>
+        <v>0.6139538177235219</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7006542255444508</v>
+        <v>0.5801518381286253</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.656106094390168</v>
+        <v>0.5380396159282297</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6128123682445392</v>
+        <v>0.5010636697254115</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -5755,16 +5755,16 @@
         <v>38</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5034095605921289</v>
+        <v>0.5089716758795828</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -5796,16 +5796,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5121573059524461</v>
+        <v>0.5072232157036244</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -5837,16 +5837,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5195331078078836</v>
+        <v>0.5530893585000601</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -5878,16 +5878,16 @@
         <v>38</v>
       </c>
       <c r="D10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.505606616185023</v>
+        <v>0.5186409163731435</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -5919,16 +5919,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6108122480651336</v>
+        <v>0.5279146099640772</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -6014,16 +6014,16 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7738843030204701</v>
+        <v>0.7298127293085017</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -6055,16 +6055,16 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7225027723985461</v>
+        <v>0.7415371266891905</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -6096,16 +6096,16 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7006542255444508</v>
+        <v>0.7419378872426462</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -6137,16 +6137,16 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.775338302329198</v>
+        <v>0.7117799190711515</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -6178,16 +6178,16 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7511450268486887</v>
+        <v>0.7250384917736605</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -6219,16 +6219,16 @@
         <v>38</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7223085845290642</v>
+        <v>0.7702587169594529</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7398338973861238</v>
+        <v>0.7236806349434701</v>
       </c>
       <c r="G8">
         <v>13</v>
@@ -6301,16 +6301,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7319466788609528</v>
+        <v>0.7602889083395077</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7446653611591143</v>
+        <v>0.7034321513637638</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -6383,16 +6383,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7136501912959545</v>
+        <v>0.7446530611963978</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -6478,16 +6478,16 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8122818218911096</v>
+        <v>0.81510786719451</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -6519,16 +6519,16 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8468872919696665</v>
+        <v>0.815325349409859</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -6560,16 +6560,16 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8022191742372895</v>
+        <v>0.836098423391069</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -6601,16 +6601,16 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8233754992498827</v>
+        <v>0.8047586456854646</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -6642,16 +6642,16 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8291256288931659</v>
+        <v>0.8190105789830383</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -6683,16 +6683,16 @@
         <v>38</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8077988569777428</v>
+        <v>0.9159403773941421</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -6724,16 +6724,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8062809597220723</v>
+        <v>0.8101107911630879</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -6765,16 +6765,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8061974245460276</v>
+        <v>0.8259068728984885</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8733969465807594</v>
+        <v>0.8215787342679339</v>
       </c>
       <c r="G10">
         <v>21</v>
@@ -6847,16 +6847,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8219194654739834</v>
+        <v>0.8110725644978352</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -6942,16 +6942,16 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.966709559264971</v>
+        <v>0.9012067078603486</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -6983,16 +6983,16 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9171706927631563</v>
+        <v>0.9207795519630819</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -7024,16 +7024,16 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9307458924763444</v>
+        <v>0.9277180088155447</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -7065,16 +7065,16 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9553882042738677</v>
+        <v>0.9013832646795025</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -7106,16 +7106,16 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9515878294247948</v>
+        <v>0.9046377133489613</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9653438711899285</v>
+        <v>0.9159403773941421</v>
       </c>
       <c r="G7">
         <v>21</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9099049725900962</v>
+        <v>0.905341518560082</v>
       </c>
       <c r="G8">
         <v>30</v>
@@ -7229,16 +7229,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9618442105017284</v>
+        <v>0.9008702877325198</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -7270,16 +7270,16 @@
         <v>38</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9087187556481002</v>
+        <v>0.9210692092956574</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9406111627202918</v>
+        <v>0.9799699606324658</v>
       </c>
       <c r="G11">
         <v>21</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/6_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/6_245-70R19.xlsx
@@ -267,40 +267,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>245-70R19.5</t>
@@ -310,9 +313,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -1016,100 +1016,100 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.1487929195343554</v>
+        <v>0.2234106312091521</v>
       </c>
       <c r="AP2">
-        <v>0.01368569383461579</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.2938802591506496</v>
+        <v>0.4962724671770662</v>
       </c>
       <c r="AR2">
-        <v>0.01494108431260143</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>8.409340519951151E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.01927263003579635</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0777499721024671</v>
+        <v>0.08980208121365679</v>
       </c>
       <c r="AV2">
-        <v>0.00534989923757124</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.02216183460245002</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.07302925961232244</v>
+        <v>0.08092396489734607</v>
       </c>
       <c r="AY2">
-        <v>0.01473977434541098</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.00191311169088081</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.01148807046667913</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.03272412697750204</v>
+        <v>0.00512319193705483</v>
       </c>
       <c r="BC2">
-        <v>0.04231320890631995</v>
+        <v>0.0231571189996347</v>
       </c>
       <c r="BD2">
-        <v>0.001452497016447729</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.04152943196324062</v>
+        <v>0.02168309089874362</v>
       </c>
       <c r="BF2">
-        <v>0.01089146709317576</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.008238992358714736</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.06170538155327192</v>
+        <v>0.05962745366734559</v>
       </c>
       <c r="BI2">
-        <v>0.005262999660676186</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.01281546285804074</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0003083657174669065</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>1.967814373518008E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.003455554421728026</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.009616697505770638</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.008840285750657888</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.003071200573513013</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.008380307413382984</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.02128635972086322</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.01069196292507624</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.02030741710941649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:72">
@@ -1234,100 +1234,100 @@
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.2036035206034639</v>
+        <v>0.2984342965645723</v>
       </c>
       <c r="AP3">
-        <v>0.0479727125235514</v>
+        <v>0.03089611201822779</v>
       </c>
       <c r="AQ3">
-        <v>0.2302266929078925</v>
+        <v>0.3442010394933502</v>
       </c>
       <c r="AR3">
-        <v>0.002584335544237801</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.00146172726146335</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.003083108968155603</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.1250217199147573</v>
+        <v>0.1633477249916472</v>
       </c>
       <c r="AV3">
-        <v>0.0113297222487152</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.05604247441954925</v>
+        <v>0.04476849033465957</v>
       </c>
       <c r="AX3">
-        <v>0.06021111229740421</v>
+        <v>0.05193461524033877</v>
       </c>
       <c r="AY3">
-        <v>0.005468909315057223</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>2.180192226547493E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.01065108481829749</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.01659270575226057</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0410537209127878</v>
+        <v>0.01900197307958918</v>
       </c>
       <c r="BD3">
-        <v>0.005358601525231347</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.02684188076930107</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.002660554322769461</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.01301074351397083</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0575824224219502</v>
+        <v>0.04741574827761499</v>
       </c>
       <c r="BI3">
-        <v>0.00669071200413479</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.003289111480426782</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.002105477557165012</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.002677323479949327</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>9.79912448020538E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.004981842556245379</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0005529065938360935</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.00730002840127931</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.007136196305228437</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01690716942913619</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.01207643632122242</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.01540525266349235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:72">
@@ -1452,100 +1452,100 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.2513312552831848</v>
+        <v>0.3637516440822772</v>
       </c>
       <c r="AP4">
-        <v>0.1004641040518766</v>
+        <v>0.1158057575956019</v>
       </c>
       <c r="AQ4">
-        <v>0.2283564787935639</v>
+        <v>0.3259932501770429</v>
       </c>
       <c r="AR4">
-        <v>0.001161145228732833</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.006095876752503666</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.001665838260146424</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.08974852812653147</v>
+        <v>0.09819501231181592</v>
       </c>
       <c r="AV4">
-        <v>0.009034740624230486</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.05407992012187608</v>
+        <v>0.03957466613784567</v>
       </c>
       <c r="AX4">
-        <v>0.03292409229727882</v>
+        <v>0.004805662802673755</v>
       </c>
       <c r="AY4">
-        <v>0.004767005088393655</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>4.474153173950905E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.01519173989669677</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.002509871641430931</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.03872308569288316</v>
+        <v>0.01433614406694192</v>
       </c>
       <c r="BD4">
-        <v>0.009486369331235023</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.01071080684662195</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.00486645562019138</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.01371536325371915</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.05284059037270818</v>
+        <v>0.03753786282580053</v>
       </c>
       <c r="BI4">
-        <v>0.00267786068094626</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.006868578174550986</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0004465394153603655</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.001323852408051612</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.001103646458302325</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.007652677085130034</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0002017500136860191</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.006221620054697835</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.01057665130222367</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.01629780132830456</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.008674085962592918</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.01023692830060859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:72">
@@ -1670,100 +1670,100 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.242351750607791</v>
+        <v>0.3871854289230842</v>
       </c>
       <c r="AP5">
-        <v>0.02961072877776215</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.2660771365426765</v>
+        <v>0.4304444258622286</v>
       </c>
       <c r="AR5">
-        <v>0.01535781572368085</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0006120633084159208</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.00360729051234016</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.09696671173543692</v>
+        <v>0.1221018189520044</v>
       </c>
       <c r="AV5">
-        <v>0.02816711729409028</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.02902930456895756</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.03851075064949473</v>
+        <v>0.01551783129289227</v>
       </c>
       <c r="AY5">
-        <v>0.0006162196032197973</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.001741347619176236</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.01578895827847396</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.005344921415630382</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.02221486553780133</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.008761663510516887</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.01720168158537444</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0002202511886332633</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.01396113731068354</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.05454339765272511</v>
+        <v>0.04475049496979065</v>
       </c>
       <c r="BI5">
-        <v>0.01069815125662151</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.004426330418438655</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>9.564295530819184E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.001637949967964904</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.001304937191571526</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.01200846669863624</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.001291642481788895</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.006043182103495648</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.009971154755801138</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.02786394004306434</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.01920936917532003</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.01476411952910793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:72">
@@ -1888,100 +1888,100 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.2260213821001209</v>
+        <v>0.3592560967633273</v>
       </c>
       <c r="AP6">
-        <v>0.03981893458272644</v>
+        <v>0.01799554760185815</v>
       </c>
       <c r="AQ6">
-        <v>0.2352233530425641</v>
+        <v>0.3761209108356165</v>
       </c>
       <c r="AR6">
-        <v>0.01033990626155549</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.001122719674111288</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.006573933636606688</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.1159952350992664</v>
+        <v>0.1576068496763654</v>
       </c>
       <c r="AV6">
-        <v>0.0122419006243444</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.03990074756088321</v>
+        <v>0.01814548946474213</v>
       </c>
       <c r="AX6">
-        <v>0.03780037919148144</v>
+        <v>0.01429606174378553</v>
       </c>
       <c r="AY6">
-        <v>0.004536375902477519</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0006895692329676827</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.01916937144045447</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0159605836672625</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0226935663867832</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.005481786238170415</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.02544083434126192</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.001442301164656085</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.008524317536832327</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.06087129901456316</v>
+        <v>0.05657904391430506</v>
       </c>
       <c r="BI6">
-        <v>0.006974800228718502</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.007814416421152874</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0004089553566950566</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.002219927256006258</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.00115447520938845</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.01216037981804752</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.001274813949560782</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.003090089979961736</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.01192389790618133</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.02445185081073703</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.01609093749047753</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.02258695887398289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:72">
@@ -2106,100 +2106,100 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>0.1336643828136106</v>
+        <v>0.1974690577914158</v>
       </c>
       <c r="AP7">
-        <v>0.0711909734406507</v>
+        <v>0.07846419854214941</v>
       </c>
       <c r="AQ7">
-        <v>0.07563656162572595</v>
+        <v>0.0869325469411735</v>
       </c>
       <c r="AR7">
-        <v>0.0001902554533567886</v>
+        <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.01826562011346438</v>
+        <v>0</v>
       </c>
       <c r="AT7">
-        <v>1.843152373944994E-06</v>
+        <v>0</v>
       </c>
       <c r="AU7">
-        <v>0.07509831956945855</v>
+        <v>0.08590725600874262</v>
       </c>
       <c r="AV7">
-        <v>0.002047227792397455</v>
+        <v>0</v>
       </c>
       <c r="AW7">
-        <v>0.08689630856444276</v>
+        <v>0.1083811058252405</v>
       </c>
       <c r="AX7">
-        <v>0.0200353829085458</v>
+        <v>0</v>
       </c>
       <c r="AY7">
-        <v>0.02594480044555591</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0.04189695261047242</v>
+        <v>0.02266236443816134</v>
       </c>
       <c r="BA7">
-        <v>0.003822143008021408</v>
+        <v>0</v>
       </c>
       <c r="BB7">
-        <v>0.1015178576240436</v>
+        <v>0.1362335218420486</v>
       </c>
       <c r="BC7">
-        <v>0.0348652209029498</v>
+        <v>0.009267701804389251</v>
       </c>
       <c r="BD7">
-        <v>0.001128130335405413</v>
+        <v>0</v>
       </c>
       <c r="BE7">
-        <v>0.07805673659897742</v>
+        <v>0.09154270964785376</v>
       </c>
       <c r="BF7">
-        <v>0.01927588923472943</v>
+        <v>0</v>
       </c>
       <c r="BG7">
-        <v>0.0002638880073350393</v>
+        <v>0</v>
       </c>
       <c r="BH7">
-        <v>0.1261418831926248</v>
+        <v>0.1831395371588256</v>
       </c>
       <c r="BI7">
-        <v>0.0007888836473324111</v>
+        <v>0</v>
       </c>
       <c r="BJ7">
-        <v>0.01586728607197196</v>
+        <v>0</v>
       </c>
       <c r="BK7">
-        <v>0.01265518217092213</v>
+        <v>0</v>
       </c>
       <c r="BL7">
-        <v>1.253378283276915E-05</v>
+        <v>0</v>
       </c>
       <c r="BM7">
-        <v>0.01140918584761089</v>
+        <v>0</v>
       </c>
       <c r="BN7">
-        <v>0.001667062296257921</v>
+        <v>0</v>
       </c>
       <c r="BO7">
-        <v>0.0002397384635016583</v>
+        <v>0</v>
       </c>
       <c r="BP7">
-        <v>0.0008331366441508676</v>
+        <v>0</v>
       </c>
       <c r="BQ7">
-        <v>0.00205170730295993</v>
+        <v>0</v>
       </c>
       <c r="BR7">
-        <v>0.000877655176899593</v>
+        <v>0</v>
       </c>
       <c r="BS7">
-        <v>0.01704743727536176</v>
+        <v>0</v>
       </c>
       <c r="BT7">
-        <v>0.02060981392605622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:72">
@@ -2213,52 +2213,52 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1623418781024533</v>
+        <v>0.2256496243360368</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1521749929481571</v>
+        <v>0.208592496538457</v>
       </c>
       <c r="G8">
-        <v>0.07967829720109214</v>
+        <v>0.08696375917267467</v>
       </c>
       <c r="H8">
-        <v>0.08770429452415363</v>
+        <v>0.1004290890121334</v>
       </c>
       <c r="I8">
-        <v>0.01485564053315206</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.01046811239461604</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1221064855565194</v>
+        <v>0.1581461341100472</v>
       </c>
       <c r="M8">
-        <v>0.01944396172704703</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.07490697195627934</v>
+        <v>0.07895883896068617</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.06565372136706263</v>
+        <v>0.06343452886492332</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.004837663099550237</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2267,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.0002073183484817243</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.01573145340452322</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.04897573471646458</v>
+        <v>0.0354536334984233</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2288,25 +2288,25 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.03017355250151436</v>
+        <v>0.003908945027316735</v>
       </c>
       <c r="AD8">
-        <v>0.001612439015453948</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.01446900116356126</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.01604541668203129</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.02911583822380859</v>
+        <v>0.00213440274279722</v>
       </c>
       <c r="AI8">
-        <v>0.04949722653407804</v>
+        <v>0.03632854773650401</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -2431,16 +2431,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.183517393749151</v>
+        <v>0.1715026005593343</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3695719647509091</v>
+        <v>0.3334517070034766</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.01176195148733693</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02115019922408108</v>
+        <v>0.03017190426094097</v>
       </c>
       <c r="K9">
-        <v>0.01772298950806882</v>
+        <v>0.02718872815235923</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1683263611072975</v>
+        <v>0.1582797372399014</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2470,16 +2470,16 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.06561796455898088</v>
+        <v>0.0688783699112086</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.0001797931548576372</v>
       </c>
       <c r="T9">
-        <v>0.01213215713454735</v>
+        <v>0.0223222510628916</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.06283125769948381</v>
+        <v>0.06645271230232863</v>
       </c>
       <c r="X9">
-        <v>0.09426964020940691</v>
+        <v>0.09381789837713403</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.004860072058073568</v>
+        <v>0.01599234648823009</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -2760,100 +2760,100 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0.1560797676315782</v>
+        <v>0.2731645376199857</v>
       </c>
       <c r="AP10">
-        <v>0.02082065787625792</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0.1097170757872142</v>
+        <v>0.1727150878915301</v>
       </c>
       <c r="AR10">
-        <v>0.007206831119851713</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.03094452379266961</v>
+        <v>0.002046406096254979</v>
       </c>
       <c r="AT10">
-        <v>0.01458406247455279</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>0.07794735806836302</v>
+        <v>0.103882788990514</v>
       </c>
       <c r="AV10">
-        <v>0.0007837361434832334</v>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>0.0434245478209159</v>
+        <v>0.02908563734804512</v>
       </c>
       <c r="AX10">
-        <v>0.05713235565825685</v>
+        <v>0.05878498610170674</v>
       </c>
       <c r="AY10">
-        <v>0.01032228089817035</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
-        <v>0.01845269678963929</v>
+        <v>0</v>
       </c>
       <c r="BA10">
-        <v>0.0003168640900304993</v>
+        <v>0</v>
       </c>
       <c r="BB10">
-        <v>0.07646585080122273</v>
+        <v>0.1006729540168995</v>
       </c>
       <c r="BC10">
-        <v>0.0002733989190856776</v>
+        <v>0</v>
       </c>
       <c r="BD10">
-        <v>0.01661386392094296</v>
+        <v>0</v>
       </c>
       <c r="BE10">
-        <v>0.06234627957152882</v>
+        <v>0.0700814783280931</v>
       </c>
       <c r="BF10">
-        <v>0.000617025139182976</v>
+        <v>0</v>
       </c>
       <c r="BG10">
-        <v>0.009882735602597904</v>
+        <v>0</v>
       </c>
       <c r="BH10">
-        <v>0.1076468221623893</v>
+        <v>0.1682296745313634</v>
       </c>
       <c r="BI10">
-        <v>0.03679266628431164</v>
+        <v>0.01471699686331054</v>
       </c>
       <c r="BJ10">
-        <v>0.03050199142446618</v>
+        <v>0.001087615070438631</v>
       </c>
       <c r="BK10">
-        <v>0.00521834915232753</v>
+        <v>0</v>
       </c>
       <c r="BL10">
-        <v>0.005224242297967419</v>
+        <v>0</v>
       </c>
       <c r="BM10">
-        <v>0.02175322586865054</v>
+        <v>0</v>
       </c>
       <c r="BN10">
-        <v>0.01268420473235873</v>
+        <v>0</v>
       </c>
       <c r="BO10">
-        <v>0.0003158342100592794</v>
+        <v>0</v>
       </c>
       <c r="BP10">
-        <v>0.000329570972239146</v>
+        <v>0</v>
       </c>
       <c r="BQ10">
-        <v>0.013803994284106</v>
+        <v>0</v>
       </c>
       <c r="BR10">
-        <v>0.001301003187788558</v>
+        <v>0</v>
       </c>
       <c r="BS10">
-        <v>0.01794295020965026</v>
+        <v>0</v>
       </c>
       <c r="BT10">
-        <v>0.03255323310814046</v>
+        <v>0.005531837141858331</v>
       </c>
     </row>
     <row r="11" spans="1:72">
@@ -2867,16 +2867,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2358130367610965</v>
+        <v>0.2608076320502764</v>
       </c>
       <c r="E11">
-        <v>0.00908433668680499</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2830172365161757</v>
+        <v>0.316355012294714</v>
       </c>
       <c r="G11">
-        <v>0.007656640174693928</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1341166346066867</v>
+        <v>0.1411367394332604</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.02365430484191061</v>
+        <v>0.01115057155059739</v>
       </c>
       <c r="M11">
-        <v>0.05131087160902932</v>
+        <v>0.04369534168629958</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.06641950330143727</v>
+        <v>0.0614743722375175</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.03485856245033082</v>
+        <v>0.02433514328278918</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.1340388336842998</v>
+        <v>0.1410451874645454</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.006105034908659006</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.01392500445887549</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -3427,100 +3427,100 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.1487929195343554</v>
+        <v>0.2234106312091521</v>
       </c>
       <c r="AP2">
-        <v>0.1624786133689712</v>
+        <v>0.2234106312091521</v>
       </c>
       <c r="AQ2">
-        <v>0.4563588725196208</v>
+        <v>0.7196830983862182</v>
       </c>
       <c r="AR2">
-        <v>0.4712999568322222</v>
+        <v>0.7196830983862182</v>
       </c>
       <c r="AS2">
-        <v>0.4713840502374217</v>
+        <v>0.7196830983862182</v>
       </c>
       <c r="AT2">
-        <v>0.490656680273218</v>
+        <v>0.7196830983862182</v>
       </c>
       <c r="AU2">
-        <v>0.5684066523756851</v>
+        <v>0.809485179599875</v>
       </c>
       <c r="AV2">
-        <v>0.5737565516132563</v>
+        <v>0.809485179599875</v>
       </c>
       <c r="AW2">
-        <v>0.5959183862157064</v>
+        <v>0.809485179599875</v>
       </c>
       <c r="AX2">
-        <v>0.6689476458280288</v>
+        <v>0.8904091444972211</v>
       </c>
       <c r="AY2">
-        <v>0.6836874201734398</v>
+        <v>0.8904091444972211</v>
       </c>
       <c r="AZ2">
-        <v>0.6856005318643206</v>
+        <v>0.8904091444972211</v>
       </c>
       <c r="BA2">
-        <v>0.6970886023309997</v>
+        <v>0.8904091444972211</v>
       </c>
       <c r="BB2">
-        <v>0.7298127293085017</v>
+        <v>0.8955323364342759</v>
       </c>
       <c r="BC2">
-        <v>0.7721259382148217</v>
+        <v>0.9186894554339106</v>
       </c>
       <c r="BD2">
-        <v>0.7735784352312693</v>
+        <v>0.9186894554339106</v>
       </c>
       <c r="BE2">
-        <v>0.81510786719451</v>
+        <v>0.9403725463326542</v>
       </c>
       <c r="BF2">
-        <v>0.8259993342876858</v>
+        <v>0.9403725463326542</v>
       </c>
       <c r="BG2">
-        <v>0.8342383266464005</v>
+        <v>0.9403725463326542</v>
       </c>
       <c r="BH2">
-        <v>0.8959437081996724</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI2">
-        <v>0.9012067078603486</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ2">
-        <v>0.9140221707183893</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK2">
-        <v>0.9143305364358563</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL2">
-        <v>0.9143502145795914</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM2">
-        <v>0.9178057690013195</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN2">
-        <v>0.9274224665070901</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO2">
-        <v>0.936262752257748</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP2">
-        <v>0.9393339528312611</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ2">
-        <v>0.9477142602446441</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR2">
-        <v>0.9690006199655073</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS2">
-        <v>0.9796925828905836</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:72">
@@ -3645,97 +3645,97 @@
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.2036035206034639</v>
+        <v>0.2984342965645723</v>
       </c>
       <c r="AP3">
-        <v>0.2515762331270153</v>
+        <v>0.3293304085828</v>
       </c>
       <c r="AQ3">
-        <v>0.4818029260349078</v>
+        <v>0.6735314480761503</v>
       </c>
       <c r="AR3">
-        <v>0.4843872615791456</v>
+        <v>0.6735314480761503</v>
       </c>
       <c r="AS3">
-        <v>0.485848988840609</v>
+        <v>0.6735314480761503</v>
       </c>
       <c r="AT3">
-        <v>0.4889320978087646</v>
+        <v>0.6735314480761503</v>
       </c>
       <c r="AU3">
-        <v>0.6139538177235219</v>
+        <v>0.8368791730677976</v>
       </c>
       <c r="AV3">
-        <v>0.6252835399722371</v>
+        <v>0.8368791730677976</v>
       </c>
       <c r="AW3">
-        <v>0.6813260143917863</v>
+        <v>0.8816476634024571</v>
       </c>
       <c r="AX3">
-        <v>0.7415371266891905</v>
+        <v>0.9335822786427959</v>
       </c>
       <c r="AY3">
-        <v>0.7470060360042476</v>
+        <v>0.9335822786427959</v>
       </c>
       <c r="AZ3">
-        <v>0.7470278379265132</v>
+        <v>0.9335822786427959</v>
       </c>
       <c r="BA3">
-        <v>0.7576789227448106</v>
+        <v>0.9335822786427959</v>
       </c>
       <c r="BB3">
-        <v>0.7742716284970712</v>
+        <v>0.9335822786427959</v>
       </c>
       <c r="BC3">
-        <v>0.815325349409859</v>
+        <v>0.952584251722385</v>
       </c>
       <c r="BD3">
-        <v>0.8206839509350904</v>
+        <v>0.952584251722385</v>
       </c>
       <c r="BE3">
-        <v>0.8475258317043914</v>
+        <v>0.952584251722385</v>
       </c>
       <c r="BF3">
-        <v>0.8501863860271609</v>
+        <v>0.952584251722385</v>
       </c>
       <c r="BG3">
-        <v>0.8631971295411317</v>
+        <v>0.952584251722385</v>
       </c>
       <c r="BH3">
-        <v>0.9207795519630819</v>
+        <v>1</v>
       </c>
       <c r="BI3">
-        <v>0.9274702639672167</v>
+        <v>1</v>
       </c>
       <c r="BJ3">
-        <v>0.9307593754476434</v>
+        <v>1</v>
       </c>
       <c r="BK3">
-        <v>0.9328648530048085</v>
+        <v>1</v>
       </c>
       <c r="BL3">
-        <v>0.9355421764847578</v>
+        <v>1</v>
       </c>
       <c r="BM3">
-        <v>0.9356401677295598</v>
+        <v>1</v>
       </c>
       <c r="BN3">
-        <v>0.9406220102858052</v>
+        <v>1</v>
       </c>
       <c r="BO3">
-        <v>0.9411749168796413</v>
+        <v>1</v>
       </c>
       <c r="BP3">
-        <v>0.9484749452809206</v>
+        <v>1</v>
       </c>
       <c r="BQ3">
-        <v>0.955611141586149</v>
+        <v>1</v>
       </c>
       <c r="BR3">
-        <v>0.9725183110152852</v>
+        <v>1</v>
       </c>
       <c r="BS3">
-        <v>0.9845947473365076</v>
+        <v>1</v>
       </c>
       <c r="BT3">
         <v>1</v>
@@ -3863,97 +3863,97 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.2513312552831848</v>
+        <v>0.3637516440822772</v>
       </c>
       <c r="AP4">
-        <v>0.3517953593350614</v>
+        <v>0.4795574016778791</v>
       </c>
       <c r="AQ4">
-        <v>0.5801518381286253</v>
+        <v>0.805550651854922</v>
       </c>
       <c r="AR4">
-        <v>0.581312983357358</v>
+        <v>0.805550651854922</v>
       </c>
       <c r="AS4">
-        <v>0.5874088601098617</v>
+        <v>0.805550651854922</v>
       </c>
       <c r="AT4">
-        <v>0.5890746983700081</v>
+        <v>0.805550651854922</v>
       </c>
       <c r="AU4">
-        <v>0.6788232264965396</v>
+        <v>0.903745664166738</v>
       </c>
       <c r="AV4">
-        <v>0.6878579671207701</v>
+        <v>0.903745664166738</v>
       </c>
       <c r="AW4">
-        <v>0.7419378872426462</v>
+        <v>0.9433203303045836</v>
       </c>
       <c r="AX4">
-        <v>0.774861979539925</v>
+        <v>0.9481259931072574</v>
       </c>
       <c r="AY4">
-        <v>0.7796289846283186</v>
+        <v>0.9481259931072574</v>
       </c>
       <c r="AZ4">
-        <v>0.7796737261600581</v>
+        <v>0.9481259931072574</v>
       </c>
       <c r="BA4">
-        <v>0.7948654660567549</v>
+        <v>0.9481259931072574</v>
       </c>
       <c r="BB4">
-        <v>0.7973753376981858</v>
+        <v>0.9481259931072574</v>
       </c>
       <c r="BC4">
-        <v>0.836098423391069</v>
+        <v>0.9624621371741994</v>
       </c>
       <c r="BD4">
-        <v>0.845584792722304</v>
+        <v>0.9624621371741994</v>
       </c>
       <c r="BE4">
-        <v>0.856295599568926</v>
+        <v>0.9624621371741994</v>
       </c>
       <c r="BF4">
-        <v>0.8611620551891174</v>
+        <v>0.9624621371741994</v>
       </c>
       <c r="BG4">
-        <v>0.8748774184428365</v>
+        <v>0.9624621371741994</v>
       </c>
       <c r="BH4">
-        <v>0.9277180088155447</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI4">
-        <v>0.9303958694964909</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ4">
-        <v>0.9372644476710419</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK4">
-        <v>0.9377109870864022</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL4">
-        <v>0.9390348394944539</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM4">
-        <v>0.9401384859527562</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN4">
-        <v>0.9477911630378862</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO4">
-        <v>0.9479929130515723</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP4">
-        <v>0.9542145331062701</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ4">
-        <v>0.9647911844084938</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR4">
-        <v>0.9810889857367984</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS4">
-        <v>0.9897630716993913</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT4">
         <v>0.9999999999999999</v>
@@ -4081,97 +4081,97 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.242351750607791</v>
+        <v>0.3871854289230842</v>
       </c>
       <c r="AP5">
-        <v>0.2719624793855531</v>
+        <v>0.3871854289230842</v>
       </c>
       <c r="AQ5">
-        <v>0.5380396159282297</v>
+        <v>0.8176298547853128</v>
       </c>
       <c r="AR5">
-        <v>0.5533974316519106</v>
+        <v>0.8176298547853128</v>
       </c>
       <c r="AS5">
-        <v>0.5540094949603265</v>
+        <v>0.8176298547853128</v>
       </c>
       <c r="AT5">
-        <v>0.5576167854726667</v>
+        <v>0.8176298547853128</v>
       </c>
       <c r="AU5">
-        <v>0.6545834972081036</v>
+        <v>0.9397316737373171</v>
       </c>
       <c r="AV5">
-        <v>0.6827506145021939</v>
+        <v>0.9397316737373171</v>
       </c>
       <c r="AW5">
-        <v>0.7117799190711515</v>
+        <v>0.9397316737373171</v>
       </c>
       <c r="AX5">
-        <v>0.7502906697206462</v>
+        <v>0.9552495050302094</v>
       </c>
       <c r="AY5">
-        <v>0.750906889323866</v>
+        <v>0.9552495050302094</v>
       </c>
       <c r="AZ5">
-        <v>0.7526482369430422</v>
+        <v>0.9552495050302094</v>
       </c>
       <c r="BA5">
-        <v>0.7684371952215161</v>
+        <v>0.9552495050302094</v>
       </c>
       <c r="BB5">
-        <v>0.7737821166371465</v>
+        <v>0.9552495050302094</v>
       </c>
       <c r="BC5">
-        <v>0.7959969821749477</v>
+        <v>0.9552495050302094</v>
       </c>
       <c r="BD5">
-        <v>0.8047586456854646</v>
+        <v>0.9552495050302094</v>
       </c>
       <c r="BE5">
-        <v>0.8219603272708391</v>
+        <v>0.9552495050302094</v>
       </c>
       <c r="BF5">
-        <v>0.8221805784594723</v>
+        <v>0.9552495050302094</v>
       </c>
       <c r="BG5">
-        <v>0.8361417157701558</v>
+        <v>0.9552495050302094</v>
       </c>
       <c r="BH5">
-        <v>0.8906851134228809</v>
+        <v>1</v>
       </c>
       <c r="BI5">
-        <v>0.9013832646795025</v>
+        <v>1</v>
       </c>
       <c r="BJ5">
-        <v>0.9058095950979411</v>
+        <v>1</v>
       </c>
       <c r="BK5">
-        <v>0.9059052380532493</v>
+        <v>1</v>
       </c>
       <c r="BL5">
-        <v>0.9075431880212143</v>
+        <v>1</v>
       </c>
       <c r="BM5">
-        <v>0.9088481252127858</v>
+        <v>1</v>
       </c>
       <c r="BN5">
-        <v>0.920856591911422</v>
+        <v>1</v>
       </c>
       <c r="BO5">
-        <v>0.9221482343932109</v>
+        <v>1</v>
       </c>
       <c r="BP5">
-        <v>0.9281914164967066</v>
+        <v>1</v>
       </c>
       <c r="BQ5">
-        <v>0.9381625712525077</v>
+        <v>1</v>
       </c>
       <c r="BR5">
-        <v>0.966026511295572</v>
+        <v>1</v>
       </c>
       <c r="BS5">
-        <v>0.9852358804708921</v>
+        <v>1</v>
       </c>
       <c r="BT5">
         <v>1</v>
@@ -4299,100 +4299,100 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.2260213821001209</v>
+        <v>0.3592560967633273</v>
       </c>
       <c r="AP6">
-        <v>0.2658403166828474</v>
+        <v>0.3772516443651854</v>
       </c>
       <c r="AQ6">
-        <v>0.5010636697254115</v>
+        <v>0.7533725552008019</v>
       </c>
       <c r="AR6">
-        <v>0.511403575986967</v>
+        <v>0.7533725552008019</v>
       </c>
       <c r="AS6">
-        <v>0.5125262956610782</v>
+        <v>0.7533725552008019</v>
       </c>
       <c r="AT6">
-        <v>0.519100229297685</v>
+        <v>0.7533725552008019</v>
       </c>
       <c r="AU6">
-        <v>0.6350954643969514</v>
+        <v>0.9109794048771673</v>
       </c>
       <c r="AV6">
-        <v>0.6473373650212958</v>
+        <v>0.9109794048771673</v>
       </c>
       <c r="AW6">
-        <v>0.687238112582179</v>
+        <v>0.9291248943419095</v>
       </c>
       <c r="AX6">
-        <v>0.7250384917736605</v>
+        <v>0.943420956085695</v>
       </c>
       <c r="AY6">
-        <v>0.7295748676761381</v>
+        <v>0.943420956085695</v>
       </c>
       <c r="AZ6">
-        <v>0.7302644369091058</v>
+        <v>0.943420956085695</v>
       </c>
       <c r="BA6">
-        <v>0.7494338083495603</v>
+        <v>0.943420956085695</v>
       </c>
       <c r="BB6">
-        <v>0.7653943920168228</v>
+        <v>0.943420956085695</v>
       </c>
       <c r="BC6">
-        <v>0.788087958403606</v>
+        <v>0.943420956085695</v>
       </c>
       <c r="BD6">
-        <v>0.7935697446417764</v>
+        <v>0.943420956085695</v>
       </c>
       <c r="BE6">
-        <v>0.8190105789830383</v>
+        <v>0.943420956085695</v>
       </c>
       <c r="BF6">
-        <v>0.8204528801476944</v>
+        <v>0.943420956085695</v>
       </c>
       <c r="BG6">
-        <v>0.8289771976845267</v>
+        <v>0.943420956085695</v>
       </c>
       <c r="BH6">
-        <v>0.8898484966990898</v>
+        <v>1</v>
       </c>
       <c r="BI6">
-        <v>0.8968232969278084</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
-        <v>0.9046377133489613</v>
+        <v>1</v>
       </c>
       <c r="BK6">
-        <v>0.9050466687056563</v>
+        <v>1</v>
       </c>
       <c r="BL6">
-        <v>0.9072665959616626</v>
+        <v>1</v>
       </c>
       <c r="BM6">
-        <v>0.9084210711710511</v>
+        <v>1</v>
       </c>
       <c r="BN6">
-        <v>0.9205814509890986</v>
+        <v>1</v>
       </c>
       <c r="BO6">
-        <v>0.9218562649386594</v>
+        <v>1</v>
       </c>
       <c r="BP6">
-        <v>0.9249463549186211</v>
+        <v>1</v>
       </c>
       <c r="BQ6">
-        <v>0.9368702528248024</v>
+        <v>1</v>
       </c>
       <c r="BR6">
-        <v>0.9613221036355395</v>
+        <v>1</v>
       </c>
       <c r="BS6">
-        <v>0.977413041126017</v>
+        <v>1</v>
       </c>
       <c r="BT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:72">
@@ -4517,97 +4517,97 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>0.1336643828136106</v>
+        <v>0.1974690577914158</v>
       </c>
       <c r="AP7">
-        <v>0.2048553562542613</v>
+        <v>0.2759332563335652</v>
       </c>
       <c r="AQ7">
-        <v>0.2804919178799873</v>
+        <v>0.3628658032747387</v>
       </c>
       <c r="AR7">
-        <v>0.2806821733333441</v>
+        <v>0.3628658032747387</v>
       </c>
       <c r="AS7">
-        <v>0.2989477934468084</v>
+        <v>0.3628658032747387</v>
       </c>
       <c r="AT7">
-        <v>0.2989496365991824</v>
+        <v>0.3628658032747387</v>
       </c>
       <c r="AU7">
-        <v>0.3740479561686409</v>
+        <v>0.4487730592834813</v>
       </c>
       <c r="AV7">
-        <v>0.3760951839610384</v>
+        <v>0.4487730592834813</v>
       </c>
       <c r="AW7">
-        <v>0.4629914925254812</v>
+        <v>0.5571541651087217</v>
       </c>
       <c r="AX7">
-        <v>0.4830268754340269</v>
+        <v>0.5571541651087217</v>
       </c>
       <c r="AY7">
-        <v>0.5089716758795828</v>
+        <v>0.5571541651087217</v>
       </c>
       <c r="AZ7">
-        <v>0.5508686284900552</v>
+        <v>0.5798165295468831</v>
       </c>
       <c r="BA7">
-        <v>0.5546907714980767</v>
+        <v>0.5798165295468831</v>
       </c>
       <c r="BB7">
-        <v>0.6562086291221203</v>
+        <v>0.7160500513889317</v>
       </c>
       <c r="BC7">
-        <v>0.6910738500250702</v>
+        <v>0.725317753193321</v>
       </c>
       <c r="BD7">
-        <v>0.6922019803604755</v>
+        <v>0.725317753193321</v>
       </c>
       <c r="BE7">
-        <v>0.7702587169594529</v>
+        <v>0.8168604628411748</v>
       </c>
       <c r="BF7">
-        <v>0.7895346061941824</v>
+        <v>0.8168604628411748</v>
       </c>
       <c r="BG7">
-        <v>0.7897984942015174</v>
+        <v>0.8168604628411748</v>
       </c>
       <c r="BH7">
-        <v>0.9159403773941421</v>
+        <v>1</v>
       </c>
       <c r="BI7">
-        <v>0.9167292610414746</v>
+        <v>1</v>
       </c>
       <c r="BJ7">
-        <v>0.9325965471134465</v>
+        <v>1</v>
       </c>
       <c r="BK7">
-        <v>0.9452517292843686</v>
+        <v>1</v>
       </c>
       <c r="BL7">
-        <v>0.9452642630672013</v>
+        <v>1</v>
       </c>
       <c r="BM7">
-        <v>0.9566734489148122</v>
+        <v>1</v>
       </c>
       <c r="BN7">
-        <v>0.9583405112110701</v>
+        <v>1</v>
       </c>
       <c r="BO7">
-        <v>0.9585802496745718</v>
+        <v>1</v>
       </c>
       <c r="BP7">
-        <v>0.9594133863187226</v>
+        <v>1</v>
       </c>
       <c r="BQ7">
-        <v>0.9614650936216825</v>
+        <v>1</v>
       </c>
       <c r="BR7">
-        <v>0.9623427487985822</v>
+        <v>1</v>
       </c>
       <c r="BS7">
-        <v>0.9793901860739439</v>
+        <v>1</v>
       </c>
       <c r="BT7">
         <v>1</v>
@@ -4624,211 +4624,211 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1623418781024533</v>
+        <v>0.2256496243360368</v>
       </c>
       <c r="E8">
-        <v>0.1623418781024533</v>
+        <v>0.2256496243360368</v>
       </c>
       <c r="F8">
-        <v>0.3145168710506104</v>
+        <v>0.4342421208744938</v>
       </c>
       <c r="G8">
-        <v>0.3941951682517026</v>
+        <v>0.5212058800471684</v>
       </c>
       <c r="H8">
-        <v>0.4818994627758562</v>
+        <v>0.6216349690593018</v>
       </c>
       <c r="I8">
-        <v>0.4967551033090083</v>
+        <v>0.6216349690593018</v>
       </c>
       <c r="J8">
-        <v>0.4967551033090083</v>
+        <v>0.6216349690593018</v>
       </c>
       <c r="K8">
-        <v>0.5072232157036244</v>
+        <v>0.6216349690593018</v>
       </c>
       <c r="L8">
-        <v>0.6293297012601438</v>
+        <v>0.779781103169349</v>
       </c>
       <c r="M8">
-        <v>0.6487736629871907</v>
+        <v>0.779781103169349</v>
       </c>
       <c r="N8">
-        <v>0.6487736629871907</v>
+        <v>0.779781103169349</v>
       </c>
       <c r="O8">
-        <v>0.7236806349434701</v>
+        <v>0.8587399421300352</v>
       </c>
       <c r="P8">
-        <v>0.7236806349434701</v>
+        <v>0.8587399421300352</v>
       </c>
       <c r="Q8">
-        <v>0.7893343563105327</v>
+        <v>0.9221744709949585</v>
       </c>
       <c r="R8">
-        <v>0.7893343563105327</v>
+        <v>0.9221744709949585</v>
       </c>
       <c r="S8">
-        <v>0.794172019410083</v>
+        <v>0.9221744709949585</v>
       </c>
       <c r="T8">
-        <v>0.794172019410083</v>
+        <v>0.9221744709949585</v>
       </c>
       <c r="U8">
-        <v>0.794172019410083</v>
+        <v>0.9221744709949585</v>
       </c>
       <c r="V8">
-        <v>0.7943793377585647</v>
+        <v>0.9221744709949585</v>
       </c>
       <c r="W8">
-        <v>0.8101107911630879</v>
+        <v>0.9221744709949585</v>
       </c>
       <c r="X8">
-        <v>0.8590865258795525</v>
+        <v>0.9576281044933819</v>
       </c>
       <c r="Y8">
-        <v>0.8590865258795525</v>
+        <v>0.9576281044933819</v>
       </c>
       <c r="Z8">
-        <v>0.8590865258795525</v>
+        <v>0.9576281044933819</v>
       </c>
       <c r="AA8">
-        <v>0.8590865258795525</v>
+        <v>0.9576281044933819</v>
       </c>
       <c r="AB8">
-        <v>0.8590865258795525</v>
+        <v>0.9576281044933819</v>
       </c>
       <c r="AC8">
-        <v>0.8892600783810668</v>
+        <v>0.9615370495206986</v>
       </c>
       <c r="AD8">
-        <v>0.8908725173965207</v>
+        <v>0.9615370495206986</v>
       </c>
       <c r="AE8">
-        <v>0.8908725173965207</v>
+        <v>0.9615370495206986</v>
       </c>
       <c r="AF8">
-        <v>0.905341518560082</v>
+        <v>0.9615370495206986</v>
       </c>
       <c r="AG8">
-        <v>0.9213869352421133</v>
+        <v>0.9615370495206986</v>
       </c>
       <c r="AH8">
-        <v>0.9505027734659219</v>
+        <v>0.9636714522634958</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:72">
@@ -4842,97 +4842,97 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.183517393749151</v>
+        <v>0.1715026005593343</v>
       </c>
       <c r="E9">
-        <v>0.183517393749151</v>
+        <v>0.1715026005593343</v>
       </c>
       <c r="F9">
-        <v>0.5530893585000601</v>
+        <v>0.5049543075628109</v>
       </c>
       <c r="G9">
-        <v>0.5530893585000601</v>
+        <v>0.5167162590501478</v>
       </c>
       <c r="H9">
-        <v>0.5530893585000601</v>
+        <v>0.5167162590501478</v>
       </c>
       <c r="I9">
-        <v>0.5530893585000601</v>
+        <v>0.5167162590501478</v>
       </c>
       <c r="J9">
-        <v>0.5742395577241413</v>
+        <v>0.5468881633110888</v>
       </c>
       <c r="K9">
-        <v>0.5919625472322101</v>
+        <v>0.574076891463448</v>
       </c>
       <c r="L9">
-        <v>0.5919625472322101</v>
+        <v>0.574076891463448</v>
       </c>
       <c r="M9">
-        <v>0.7602889083395077</v>
+        <v>0.7323566287033494</v>
       </c>
       <c r="N9">
-        <v>0.7602889083395077</v>
+        <v>0.7323566287033494</v>
       </c>
       <c r="O9">
-        <v>0.7602889083395077</v>
+        <v>0.7323566287033494</v>
       </c>
       <c r="P9">
-        <v>0.7602889083395077</v>
+        <v>0.7323566287033494</v>
       </c>
       <c r="Q9">
-        <v>0.8259068728984885</v>
+        <v>0.8012349986145579</v>
       </c>
       <c r="R9">
-        <v>0.8259068728984885</v>
+        <v>0.8012349986145579</v>
       </c>
       <c r="S9">
-        <v>0.8259068728984885</v>
+        <v>0.8014147917694155</v>
       </c>
       <c r="T9">
-        <v>0.8380390300330359</v>
+        <v>0.8237370428323072</v>
       </c>
       <c r="U9">
-        <v>0.8380390300330359</v>
+        <v>0.8237370428323072</v>
       </c>
       <c r="V9">
-        <v>0.8380390300330359</v>
+        <v>0.8237370428323072</v>
       </c>
       <c r="W9">
-        <v>0.9008702877325198</v>
+        <v>0.8901897551346358</v>
       </c>
       <c r="X9">
-        <v>0.9951399279419266</v>
+        <v>0.9840076535117699</v>
       </c>
       <c r="Y9">
-        <v>0.9951399279419266</v>
+        <v>0.9840076535117699</v>
       </c>
       <c r="Z9">
-        <v>0.9951399279419266</v>
+        <v>0.9840076535117699</v>
       </c>
       <c r="AA9">
-        <v>0.9951399279419266</v>
+        <v>0.9840076535117699</v>
       </c>
       <c r="AB9">
-        <v>0.9951399279419266</v>
+        <v>0.9840076535117699</v>
       </c>
       <c r="AC9">
-        <v>0.9951399279419266</v>
+        <v>0.9840076535117699</v>
       </c>
       <c r="AD9">
-        <v>0.9951399279419266</v>
+        <v>0.9840076535117699</v>
       </c>
       <c r="AE9">
-        <v>0.9951399279419266</v>
+        <v>0.9840076535117699</v>
       </c>
       <c r="AF9">
-        <v>0.9951399279419266</v>
+        <v>0.9840076535117699</v>
       </c>
       <c r="AG9">
-        <v>0.9951399279419266</v>
+        <v>0.9840076535117699</v>
       </c>
       <c r="AH9">
-        <v>0.9951399279419266</v>
+        <v>0.9840076535117699</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -5171,97 +5171,97 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0.1560797676315782</v>
+        <v>0.2731645376199857</v>
       </c>
       <c r="AP10">
-        <v>0.1769004255078362</v>
+        <v>0.2731645376199857</v>
       </c>
       <c r="AQ10">
-        <v>0.2866175012950504</v>
+        <v>0.4458796255115158</v>
       </c>
       <c r="AR10">
-        <v>0.2938243324149021</v>
+        <v>0.4458796255115158</v>
       </c>
       <c r="AS10">
-        <v>0.3247688562075717</v>
+        <v>0.4479260316077708</v>
       </c>
       <c r="AT10">
-        <v>0.3393529186821245</v>
+        <v>0.4479260316077708</v>
       </c>
       <c r="AU10">
-        <v>0.4173002767504875</v>
+        <v>0.5518088205982848</v>
       </c>
       <c r="AV10">
-        <v>0.4180840128939707</v>
+        <v>0.5518088205982848</v>
       </c>
       <c r="AW10">
-        <v>0.4615085607148867</v>
+        <v>0.58089445794633</v>
       </c>
       <c r="AX10">
-        <v>0.5186409163731435</v>
+        <v>0.6396794440480367</v>
       </c>
       <c r="AY10">
-        <v>0.5289631972713138</v>
+        <v>0.6396794440480367</v>
       </c>
       <c r="AZ10">
-        <v>0.547415894060953</v>
+        <v>0.6396794440480367</v>
       </c>
       <c r="BA10">
-        <v>0.5477327581509835</v>
+        <v>0.6396794440480367</v>
       </c>
       <c r="BB10">
-        <v>0.6241986089522062</v>
+        <v>0.7403523980649362</v>
       </c>
       <c r="BC10">
-        <v>0.624472007871292</v>
+        <v>0.7403523980649362</v>
       </c>
       <c r="BD10">
-        <v>0.641085871792235</v>
+        <v>0.7403523980649362</v>
       </c>
       <c r="BE10">
-        <v>0.7034321513637638</v>
+        <v>0.8104338763930293</v>
       </c>
       <c r="BF10">
-        <v>0.7040491765029467</v>
+        <v>0.8104338763930293</v>
       </c>
       <c r="BG10">
-        <v>0.7139319121055446</v>
+        <v>0.8104338763930293</v>
       </c>
       <c r="BH10">
-        <v>0.8215787342679339</v>
+        <v>0.9786635509243927</v>
       </c>
       <c r="BI10">
-        <v>0.8583714005522456</v>
+        <v>0.9933805477877032</v>
       </c>
       <c r="BJ10">
-        <v>0.8888733919767118</v>
+        <v>0.9944681628581419</v>
       </c>
       <c r="BK10">
-        <v>0.8940917411290393</v>
+        <v>0.9944681628581419</v>
       </c>
       <c r="BL10">
-        <v>0.8993159834270068</v>
+        <v>0.9944681628581419</v>
       </c>
       <c r="BM10">
-        <v>0.9210692092956574</v>
+        <v>0.9944681628581419</v>
       </c>
       <c r="BN10">
-        <v>0.9337534140280161</v>
+        <v>0.9944681628581419</v>
       </c>
       <c r="BO10">
-        <v>0.9340692482380755</v>
+        <v>0.9944681628581419</v>
       </c>
       <c r="BP10">
-        <v>0.9343988192103146</v>
+        <v>0.9944681628581419</v>
       </c>
       <c r="BQ10">
-        <v>0.9482028134944206</v>
+        <v>0.9944681628581419</v>
       </c>
       <c r="BR10">
-        <v>0.9495038166822092</v>
+        <v>0.9944681628581419</v>
       </c>
       <c r="BS10">
-        <v>0.9674467668918595</v>
+        <v>0.9944681628581419</v>
       </c>
       <c r="BT10">
         <v>1</v>
@@ -5278,97 +5278,97 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2358130367610965</v>
+        <v>0.2608076320502764</v>
       </c>
       <c r="E11">
-        <v>0.2448973734479015</v>
+        <v>0.2608076320502764</v>
       </c>
       <c r="F11">
-        <v>0.5279146099640772</v>
+        <v>0.5771626443449904</v>
       </c>
       <c r="G11">
-        <v>0.5355712501387712</v>
+        <v>0.5771626443449904</v>
       </c>
       <c r="H11">
-        <v>0.5355712501387712</v>
+        <v>0.5771626443449904</v>
       </c>
       <c r="I11">
-        <v>0.5355712501387712</v>
+        <v>0.5771626443449904</v>
       </c>
       <c r="J11">
-        <v>0.6696878847454579</v>
+        <v>0.7182993837782509</v>
       </c>
       <c r="K11">
-        <v>0.6696878847454579</v>
+        <v>0.7182993837782509</v>
       </c>
       <c r="L11">
-        <v>0.6933421895873685</v>
+        <v>0.7294499553288483</v>
       </c>
       <c r="M11">
-        <v>0.7446530611963978</v>
+        <v>0.7731452970151479</v>
       </c>
       <c r="N11">
-        <v>0.7446530611963978</v>
+        <v>0.7731452970151479</v>
       </c>
       <c r="O11">
-        <v>0.7446530611963978</v>
+        <v>0.7731452970151479</v>
       </c>
       <c r="P11">
-        <v>0.7446530611963978</v>
+        <v>0.7731452970151479</v>
       </c>
       <c r="Q11">
-        <v>0.8110725644978352</v>
+        <v>0.8346196692526654</v>
       </c>
       <c r="R11">
-        <v>0.8110725644978352</v>
+        <v>0.8346196692526654</v>
       </c>
       <c r="S11">
-        <v>0.8110725644978352</v>
+        <v>0.8346196692526654</v>
       </c>
       <c r="T11">
-        <v>0.845931126948166</v>
+        <v>0.8589548125354546</v>
       </c>
       <c r="U11">
-        <v>0.845931126948166</v>
+        <v>0.8589548125354546</v>
       </c>
       <c r="V11">
-        <v>0.845931126948166</v>
+        <v>0.8589548125354546</v>
       </c>
       <c r="W11">
-        <v>0.9799699606324658</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0.9799699606324658</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0.9860749955411248</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.9860749955411248</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.9860749955411248</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.9860749955411248</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.9860749955411248</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.9860749955411248</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9860749955411248</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9860749955411248</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9860749955411248</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9860749955411248</v>
+        <v>1</v>
       </c>
       <c r="AI11">
         <v>1</v>
@@ -5544,34 +5544,34 @@
         <v>72</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>38</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7196830983862182</v>
       </c>
       <c r="F2">
-        <v>0.5684066523756851</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2">
         <v>6</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>95</v>
       </c>
       <c r="L2" t="s">
         <v>96</v>
@@ -5585,34 +5585,34 @@
         <v>73</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>38</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.6735314480761503</v>
       </c>
       <c r="F3">
-        <v>0.6139538177235219</v>
+        <v>42</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3">
         <v>6</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" t="s">
-        <v>95</v>
       </c>
       <c r="L3" t="s">
         <v>96</v>
@@ -5626,34 +5626,34 @@
         <v>74</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>38</v>
       </c>
       <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.805550651854922</v>
+      </c>
+      <c r="F4">
         <v>42</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5801518381286253</v>
-      </c>
       <c r="G4">
+        <v>850</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4">
         <v>6</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
       </c>
       <c r="L4" t="s">
         <v>96</v>
@@ -5667,34 +5667,34 @@
         <v>75</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>38</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.8176298547853128</v>
+      </c>
+      <c r="F5">
         <v>42</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5380396159282297</v>
-      </c>
       <c r="G5">
+        <v>850</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5">
         <v>6</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>95</v>
       </c>
       <c r="L5" t="s">
         <v>96</v>
@@ -5708,34 +5708,34 @@
         <v>76</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>38</v>
       </c>
       <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.7533725552008019</v>
+      </c>
+      <c r="F6">
         <v>42</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5010636697254115</v>
-      </c>
       <c r="G6">
+        <v>850</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6">
         <v>6</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
       </c>
       <c r="L6" t="s">
         <v>96</v>
@@ -5749,34 +5749,34 @@
         <v>77</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>38</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5571541651087217</v>
       </c>
       <c r="F7">
-        <v>0.5089716758795828</v>
+        <v>48</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7">
         <v>6</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
       </c>
       <c r="L7" t="s">
         <v>96</v>
@@ -5790,34 +5790,34 @@
         <v>78</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5212058800471684</v>
       </c>
       <c r="F8">
-        <v>0.5072232157036244</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8">
         <v>6</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
       </c>
       <c r="L8" t="s">
         <v>96</v>
@@ -5831,34 +5831,34 @@
         <v>79</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.5049543075628109</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5530893585000601</v>
-      </c>
       <c r="G9">
+        <v>850</v>
+      </c>
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9">
         <v>6</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
       </c>
       <c r="L9" t="s">
         <v>96</v>
@@ -5872,34 +5872,34 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>38</v>
       </c>
       <c r="D10">
-        <v>49</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5518088205982848</v>
       </c>
       <c r="F10">
-        <v>0.5186409163731435</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10">
         <v>6</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" t="s">
-        <v>95</v>
       </c>
       <c r="L10" t="s">
         <v>96</v>
@@ -5913,34 +5913,34 @@
         <v>81</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.5771626443449904</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5279146099640772</v>
-      </c>
       <c r="G11">
+        <v>850</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11">
         <v>6</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
       </c>
       <c r="L11" t="s">
         <v>96</v>
@@ -6008,34 +6008,34 @@
         <v>72</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>38</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7196830983862182</v>
       </c>
       <c r="F2">
-        <v>0.7298127293085017</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2">
         <v>6</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>95</v>
       </c>
       <c r="L2" t="s">
         <v>96</v>
@@ -6049,34 +6049,34 @@
         <v>73</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>38</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8368791730677976</v>
       </c>
       <c r="F3">
-        <v>0.7415371266891905</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3">
         <v>6</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" t="s">
-        <v>95</v>
       </c>
       <c r="L3" t="s">
         <v>96</v>
@@ -6090,34 +6090,34 @@
         <v>74</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>38</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.805550651854922</v>
       </c>
       <c r="F4">
-        <v>0.7419378872426462</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>850</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4">
         <v>6</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
       </c>
       <c r="L4" t="s">
         <v>96</v>
@@ -6131,34 +6131,34 @@
         <v>75</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>38</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8176298547853128</v>
       </c>
       <c r="F5">
-        <v>0.7117799190711515</v>
+        <v>42</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5">
         <v>6</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>95</v>
       </c>
       <c r="L5" t="s">
         <v>96</v>
@@ -6172,34 +6172,34 @@
         <v>76</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>38</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7533725552008019</v>
       </c>
       <c r="F6">
-        <v>0.7250384917736605</v>
+        <v>42</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6">
         <v>6</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
       </c>
       <c r="L6" t="s">
         <v>96</v>
@@ -6213,34 +6213,34 @@
         <v>77</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>38</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7160500513889317</v>
       </c>
       <c r="F7">
-        <v>0.7702587169594529</v>
+        <v>53</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7">
         <v>6</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
       </c>
       <c r="L7" t="s">
         <v>96</v>
@@ -6254,34 +6254,34 @@
         <v>78</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.779781103169349</v>
       </c>
       <c r="F8">
-        <v>0.7236806349434701</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8">
         <v>6</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
       </c>
       <c r="L8" t="s">
         <v>96</v>
@@ -6295,34 +6295,34 @@
         <v>79</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.7323566287033494</v>
+      </c>
+      <c r="F9">
         <v>12</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.7602889083395077</v>
-      </c>
       <c r="G9">
+        <v>850</v>
+      </c>
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9">
         <v>6</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
       </c>
       <c r="L9" t="s">
         <v>96</v>
@@ -6336,34 +6336,34 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>38</v>
       </c>
       <c r="D10">
-        <v>56</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7403523980649362</v>
       </c>
       <c r="F10">
-        <v>0.7034321513637638</v>
+        <v>53</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10">
         <v>6</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" t="s">
-        <v>95</v>
       </c>
       <c r="L10" t="s">
         <v>96</v>
@@ -6377,34 +6377,34 @@
         <v>81</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7182993837782509</v>
       </c>
       <c r="F11">
-        <v>0.7446530611963978</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11">
         <v>6</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
       </c>
       <c r="L11" t="s">
         <v>96</v>
@@ -6472,34 +6472,34 @@
         <v>72</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>38</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.809485179599875</v>
       </c>
       <c r="F2">
-        <v>0.81510786719451</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2">
         <v>6</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>95</v>
       </c>
       <c r="L2" t="s">
         <v>96</v>
@@ -6513,34 +6513,34 @@
         <v>73</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>38</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8368791730677976</v>
       </c>
       <c r="F3">
-        <v>0.815325349409859</v>
+        <v>46</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3">
         <v>6</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" t="s">
-        <v>95</v>
       </c>
       <c r="L3" t="s">
         <v>96</v>
@@ -6554,34 +6554,34 @@
         <v>74</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>38</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.805550651854922</v>
       </c>
       <c r="F4">
-        <v>0.836098423391069</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>850</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4">
         <v>6</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
       </c>
       <c r="L4" t="s">
         <v>96</v>
@@ -6595,34 +6595,34 @@
         <v>75</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>38</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8176298547853128</v>
       </c>
       <c r="F5">
-        <v>0.8047586456854646</v>
+        <v>42</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5">
         <v>6</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>95</v>
       </c>
       <c r="L5" t="s">
         <v>96</v>
@@ -6636,34 +6636,34 @@
         <v>76</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>38</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9109794048771673</v>
       </c>
       <c r="F6">
-        <v>0.8190105789830383</v>
+        <v>46</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6">
         <v>6</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
       </c>
       <c r="L6" t="s">
         <v>96</v>
@@ -6677,34 +6677,34 @@
         <v>77</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>38</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8168604628411748</v>
       </c>
       <c r="F7">
-        <v>0.9159403773941421</v>
+        <v>56</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7">
         <v>6</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
       </c>
       <c r="L7" t="s">
         <v>96</v>
@@ -6718,34 +6718,34 @@
         <v>78</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8587399421300352</v>
       </c>
       <c r="F8">
-        <v>0.8101107911630879</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8">
         <v>6</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
       </c>
       <c r="L8" t="s">
         <v>96</v>
@@ -6759,34 +6759,34 @@
         <v>79</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.8012349986145579</v>
+      </c>
+      <c r="F9">
         <v>16</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8259068728984885</v>
-      </c>
       <c r="G9">
+        <v>850</v>
+      </c>
+      <c r="H9">
         <v>15</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9">
         <v>6</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
       </c>
       <c r="L9" t="s">
         <v>96</v>
@@ -6800,34 +6800,34 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>38</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8104338763930293</v>
       </c>
       <c r="F10">
-        <v>0.8215787342679339</v>
+        <v>56</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10">
         <v>6</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" t="s">
-        <v>95</v>
       </c>
       <c r="L10" t="s">
         <v>96</v>
@@ -6841,34 +6841,34 @@
         <v>81</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.8346196692526654</v>
+      </c>
+      <c r="F11">
         <v>16</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8110725644978352</v>
-      </c>
       <c r="G11">
+        <v>850</v>
+      </c>
+      <c r="H11">
         <v>15</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11">
         <v>6</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
       </c>
       <c r="L11" t="s">
         <v>96</v>
@@ -6936,34 +6936,34 @@
         <v>72</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>38</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9186894554339106</v>
       </c>
       <c r="F2">
-        <v>0.9012067078603486</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2">
         <v>6</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>95</v>
       </c>
       <c r="L2" t="s">
         <v>96</v>
@@ -6977,34 +6977,34 @@
         <v>73</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>38</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9335822786427959</v>
       </c>
       <c r="F3">
-        <v>0.9207795519630819</v>
+        <v>49</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3">
         <v>6</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" t="s">
-        <v>95</v>
       </c>
       <c r="L3" t="s">
         <v>96</v>
@@ -7018,34 +7018,34 @@
         <v>74</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>38</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.903745664166738</v>
       </c>
       <c r="F4">
-        <v>0.9277180088155447</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>850</v>
       </c>
       <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4">
         <v>6</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
       </c>
       <c r="L4" t="s">
         <v>96</v>
@@ -7059,34 +7059,34 @@
         <v>75</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>38</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9397316737373171</v>
       </c>
       <c r="F5">
-        <v>0.9013832646795025</v>
+        <v>46</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5">
         <v>6</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>95</v>
       </c>
       <c r="L5" t="s">
         <v>96</v>
@@ -7100,34 +7100,34 @@
         <v>76</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>38</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9109794048771673</v>
       </c>
       <c r="F6">
-        <v>0.9046377133489613</v>
+        <v>46</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6">
         <v>6</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
       </c>
       <c r="L6" t="s">
         <v>96</v>
@@ -7141,34 +7141,34 @@
         <v>77</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>38</v>
       </c>
       <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>59</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9159403773941421</v>
-      </c>
       <c r="G7">
+        <v>850</v>
+      </c>
+      <c r="H7">
         <v>21</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7">
         <v>6</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
       </c>
       <c r="L7" t="s">
         <v>96</v>
@@ -7182,34 +7182,34 @@
         <v>78</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>31</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9221744709949585</v>
       </c>
       <c r="F8">
-        <v>0.905341518560082</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8">
         <v>6</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
       </c>
       <c r="L8" t="s">
         <v>96</v>
@@ -7223,34 +7223,34 @@
         <v>79</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.9840076535117699</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>850</v>
+      </c>
+      <c r="H9">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9008702877325198</v>
-      </c>
-      <c r="G9">
-        <v>21</v>
-      </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9">
         <v>6</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
       </c>
       <c r="L9" t="s">
         <v>96</v>
@@ -7264,34 +7264,34 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>38</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9786635509243927</v>
       </c>
       <c r="F10">
-        <v>0.9210692092956574</v>
+        <v>59</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10">
         <v>6</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" t="s">
-        <v>95</v>
       </c>
       <c r="L10" t="s">
         <v>96</v>
@@ -7305,34 +7305,34 @@
         <v>81</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>22</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9799699606324658</v>
-      </c>
       <c r="G11">
+        <v>850</v>
+      </c>
+      <c r="H11">
         <v>21</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11">
         <v>6</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
       </c>
       <c r="L11" t="s">
         <v>96</v>
